--- a/noprofit/en/11255/inpag-template.xlsx
+++ b/noprofit/en/11255/inpag-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bananach-my.sharepoint.com/personal/patrick_pasquillo_banana_ch/Documents/Desktop/Associazioni Internazionale/Documentazione INPAG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\noprofit\en\11255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3135" documentId="8_{07358736-E140-4CDF-B895-9B6DD3243961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E8CD59-A80F-425C-838B-0BED8354BEBE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44820CC8-AE92-4FB9-82EA-52E5190E96B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" firstSheet="4" activeTab="4" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="7" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="287">
   <si>
     <t>Company name and legal form</t>
   </si>
@@ -907,6 +907,12 @@
   </si>
   <si>
     <t>General Information</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
 </sst>
 </file>
@@ -1154,9 +1160,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1190,17 +1193,11 @@
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1241,9 +1238,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,9 +1316,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,9 +1338,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1419,26 +1407,38 @@
     <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1452,15 +1452,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1470,13 +1461,22 @@
     <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1485,53 +1485,59 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1914,7 +1920,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1927,122 +1933,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="109">
+      <c r="B8" s="102">
         <v>45292</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="109">
+      <c r="B9" s="102">
         <v>45657</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="103" t="s">
@@ -2055,199 +2061,205 @@
       <c r="G10" s="103"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="104" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="104" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="105" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="104" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="104" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="104" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="104" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="104" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="104" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B10:G16"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
@@ -2264,12 +2276,6 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B10:G16"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -2303,685 +2309,731 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="105" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114" t="str">
+      <c r="B3" s="105" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="107">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="107">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="78" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="78">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="C11" s="136">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="C12" s="136">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="C13" s="136">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="C14" s="136">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="71">
+      <c r="C15" s="45"/>
+      <c r="D15" s="66">
         <f>SUM(D11:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="66">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="113" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="C18" s="136">
+        <v>5</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="C19" s="136">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="C20" s="136">
+        <v>7</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="C21" s="136">
+        <v>8</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="72">
+      <c r="C22" s="45"/>
+      <c r="D22" s="67">
         <f>SUM(D18:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="67">
         <f>SUM(E18:E21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="72">
+      <c r="C23" s="49"/>
+      <c r="D23" s="67">
         <f>SUM(D15,D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="67">
         <f>SUM(E15,E22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="78" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="78">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="113" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
     </row>
     <row r="27" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="15">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="C27" s="136">
+        <v>9</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="15">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
+      <c r="C28" s="136">
+        <v>10</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="15">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
+      <c r="C29" s="136">
+        <v>11</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="15">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
+      <c r="C30" s="136">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="15">
-        <v>0</v>
-      </c>
-      <c r="E31" s="15">
+      <c r="C31" s="136">
+        <v>13</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="62" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="71">
+      <c r="C32" s="45"/>
+      <c r="D32" s="66">
         <f>SUM(D27:D31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="66">
         <f>SUM(E27:E31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="113" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
     </row>
     <row r="35" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="15">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
+      <c r="C35" s="136">
+        <v>14</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="15">
-        <v>0</v>
-      </c>
-      <c r="E36" s="15">
+      <c r="C36" s="136">
+        <v>15</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="15">
-        <v>0</v>
-      </c>
-      <c r="E37" s="15">
+      <c r="C37" s="136">
+        <v>16</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="62" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="71">
+      <c r="C38" s="45"/>
+      <c r="D38" s="66">
         <f>SUM(D35:D37)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="66">
         <f>SUM(E35:E37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="113" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
     </row>
     <row r="41" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="15">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15">
+      <c r="C41" s="136">
+        <v>17</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="15">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15">
+      <c r="C42" s="136">
+        <v>18</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="15">
-        <v>0</v>
-      </c>
-      <c r="E43" s="15">
+      <c r="C43" s="136">
+        <v>19</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="15">
-        <v>0</v>
-      </c>
-      <c r="E44" s="15">
+      <c r="C44" s="136">
+        <v>20</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="15">
-        <v>0</v>
-      </c>
-      <c r="E45" s="15">
+      <c r="C45" s="136">
+        <v>21</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="15">
-        <v>0</v>
-      </c>
-      <c r="E46" s="15">
+      <c r="C46" s="136">
+        <v>22</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="15">
-        <v>0</v>
-      </c>
-      <c r="E47" s="15">
+      <c r="C47" s="136">
+        <v>23</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="113" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="71">
+      <c r="C48" s="111"/>
+      <c r="D48" s="66">
         <f>SUM(D41:D47)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="66">
         <f>SUM(E41:E47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="113" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="71">
+      <c r="C49" s="111"/>
+      <c r="D49" s="66">
         <f>SUM(D32,D38,D48)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="66">
         <f>SUM(E32,E38,E48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="112" t="str">
+      <c r="B52" s="110" t="str">
         <f>IF((D15+D23+D32=D38+D48),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C52" s="112"/>
-      <c r="D52" s="61">
+      <c r="C52" s="110"/>
+      <c r="D52" s="57">
         <f>D49-D23</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="111" t="str">
+      <c r="B53" s="109" t="str">
         <f>IF((E15+E23+E32=E38+E48),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="61">
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="57">
         <f>E49-E23</f>
         <v>0</v>
       </c>
@@ -2994,11 +3046,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B52:C52"/>
@@ -3009,6 +3056,11 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B52">
@@ -3049,8 +3101,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3067,499 +3119,537 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="118" t="str">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="113" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="118" t="str">
+      <c r="B3" s="113" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="119">
+      <c r="B4" s="114">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="114">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="91">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="91">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="C10" s="137">
+        <v>24</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="C11" s="137">
+        <v>25</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="C12" s="137">
+        <v>26</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="C13" s="137">
+        <v>27</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="C14" s="137">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74">
+      <c r="C15" s="68"/>
+      <c r="D15" s="69">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="69">
         <f>SUM(E10:E14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="91">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="91">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="C18" s="137">
+        <v>29</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="C19" s="137">
+        <v>30</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="C20" s="137">
+        <v>31</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20">
+      <c r="C21" s="137">
+        <v>32</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="C22" s="137">
+        <v>33</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="C23" s="137">
+        <v>34</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="C24" s="137">
+        <v>35</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20">
+      <c r="C25" s="137">
+        <v>36</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74">
+      <c r="C26" s="68"/>
+      <c r="D26" s="69">
         <f>SUM(D18:D25)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="69">
         <f>SUM(E18:E25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="97">
+      <c r="D28" s="91">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E28" s="97">
+      <c r="E28" s="91">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
+      <c r="C29" s="137">
+        <v>37</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="C30" s="137">
+        <v>38</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
+      <c r="C31" s="137">
+        <v>39</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20">
+      <c r="C32" s="137">
+        <v>40</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="20">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
+      <c r="C33" s="137">
+        <v>41</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
+      <c r="C34" s="137">
+        <v>42</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="99" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100">
+      <c r="C35" s="93"/>
+      <c r="D35" s="94">
         <f>SUM($D29:$D34)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="94">
         <f>SUM($E29:$E34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="73" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="75">
+      <c r="C36" s="68"/>
+      <c r="D36" s="70">
         <f>SUM(D15+D26+D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="75">
+      <c r="E36" s="70">
         <f>SUM(E15+E26+E35)</f>
         <v>0</v>
       </c>
@@ -3608,13 +3698,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3623,282 +3713,277 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="105" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114" t="str">
+      <c r="B3" s="105" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="107">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="107">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="84">
+      <c r="C9" s="79"/>
+      <c r="D9" s="78">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="34"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="84">
+      <c r="C12" s="79"/>
+      <c r="D12" s="78">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="117" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="15">
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="15">
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="120" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="76">
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="71">
         <f>SUM(E13:E14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="86">
+      <c r="C17" s="20"/>
+      <c r="D17" s="80">
         <f>DATE(YEAR(B4),1,1)</f>
         <v>45292</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="15">
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="15">
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="15">
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="15">
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="120" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="76">
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="71">
         <f>SUM(E18:E21)</f>
         <v>0</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="71">
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="66">
         <f>SUM(D10,E15,E22)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B24:D24"/>
@@ -3910,6 +3995,11 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -3926,7 +4016,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3941,667 +4031,711 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="105" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114" t="str">
+      <c r="B3" s="105" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="107">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="107">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="84" t="s">
+      <c r="C9" s="121"/>
+      <c r="D9" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="23">
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="84" t="s">
+      <c r="C12" s="121"/>
+      <c r="D12" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="23">
+      <c r="C13" s="118"/>
+      <c r="D13" s="136">
+        <v>26</v>
+      </c>
+      <c r="E13" s="22">
         <v>0</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="23">
+      <c r="C14" s="118"/>
+      <c r="D14" s="136">
+        <v>32</v>
+      </c>
+      <c r="E14" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="23">
+      <c r="C15" s="118"/>
+      <c r="D15" s="136">
+        <v>36</v>
+      </c>
+      <c r="E15" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="23">
+      <c r="C16" s="118"/>
+      <c r="D16" s="136">
+        <v>33</v>
+      </c>
+      <c r="E16" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="23">
+      <c r="C17" s="118"/>
+      <c r="D17" s="136">
+        <v>34</v>
+      </c>
+      <c r="E17" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="23">
+      <c r="C18" s="118"/>
+      <c r="D18" s="136">
+        <v>35</v>
+      </c>
+      <c r="E18" s="22">
         <v>0</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="23">
+      <c r="C19" s="118"/>
+      <c r="D19" s="136">
+        <v>27</v>
+      </c>
+      <c r="E19" s="22">
         <v>0</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="23">
+      <c r="C20" s="118"/>
+      <c r="D20" s="136">
+        <v>28</v>
+      </c>
+      <c r="E20" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="23">
+      <c r="C21" s="118"/>
+      <c r="D21" s="136">
+        <v>37</v>
+      </c>
+      <c r="E21" s="22">
         <v>0</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="23">
+      <c r="C22" s="118"/>
+      <c r="D22" s="136">
+        <v>38</v>
+      </c>
+      <c r="E22" s="22">
         <v>0</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="23">
+      <c r="C23" s="118"/>
+      <c r="D23" s="136">
+        <v>39</v>
+      </c>
+      <c r="E23" s="22">
         <v>0</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="23">
+      <c r="C24" s="118"/>
+      <c r="D24" s="136">
+        <v>40</v>
+      </c>
+      <c r="E24" s="22">
         <v>0</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="23">
+      <c r="C25" s="119"/>
+      <c r="D25" s="136">
+        <v>41</v>
+      </c>
+      <c r="E25" s="22">
         <v>0</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="23">
+      <c r="C26" s="119"/>
+      <c r="D26" s="136">
+        <v>42</v>
+      </c>
+      <c r="E26" s="22">
         <v>0</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="23">
+      <c r="C27" s="118"/>
+      <c r="D27" s="136">
+        <v>25</v>
+      </c>
+      <c r="E27" s="22">
         <v>0</v>
       </c>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="113" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="71">
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="66">
         <f>E10+SUM(E13:E27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="D30" s="84" t="s">
+      <c r="C30" s="121"/>
+      <c r="D30" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="23">
+      <c r="C31" s="119"/>
+      <c r="D31" s="136">
+        <v>29</v>
+      </c>
+      <c r="E31" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="23">
+      <c r="C32" s="119"/>
+      <c r="D32" s="136">
+        <v>30</v>
+      </c>
+      <c r="E32" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="140" t="s">
+      <c r="B33" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="140"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="23">
+      <c r="C33" s="119"/>
+      <c r="D33" s="136">
+        <v>31</v>
+      </c>
+      <c r="E33" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="113" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="71">
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="66">
         <f>E10+E28+SUM(E31:E33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="77"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="72"/>
     </row>
     <row r="36" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="123"/>
-      <c r="D36" s="84" t="s">
+      <c r="C36" s="121"/>
+      <c r="D36" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="78">
         <f>$B$5</f>
         <v>45657</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="B37" s="140" t="s">
+      <c r="B37" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="140"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="23">
+      <c r="C37" s="119"/>
+      <c r="D37" s="136">
+        <v>24</v>
+      </c>
+      <c r="E37" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="113" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="71">
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="66">
         <f>E10+E28+E34+SUM(E37:E37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="77"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="72"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="113" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="71">
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="66">
         <f>SUM(E28,E34,E38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="77"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="72"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="126" t="s">
+      <c r="B42" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="23"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="113" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="113"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="78">
+      <c r="C43" s="111"/>
+      <c r="D43" s="139">
+        <v>43</v>
+      </c>
+      <c r="E43" s="73">
         <f>E40+E42</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="113" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="78">
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="73">
         <f>'Statement of financial position'!D22</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="113" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="78">
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="73">
         <f>'Statement of financial position'!E22</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="113" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="78">
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="73">
         <f>E45-E44</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="65" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="33">
+      <c r="A50" s="31"/>
+      <c r="B50" s="30">
         <v>7.18</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="34"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="33" t="s">
+      <c r="A51" s="31"/>
+      <c r="B51" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="34"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="31"/>
+      <c r="B52" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="34"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="33" t="s">
+      <c r="A53" s="31"/>
+      <c r="B53" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="34"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="33">
+      <c r="A54" s="31"/>
+      <c r="B54" s="30">
         <v>7.21</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="34"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -4615,23 +4749,19 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
@@ -4648,7 +4778,7 @@
   </sheetPr>
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4662,199 +4792,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="105" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114" t="str">
+      <c r="B3" s="105" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="107">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="107">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="128"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="128"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="128"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="128"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="128"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="128"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="128"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="128"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="127"/>
@@ -4863,621 +4993,633 @@
       <c r="D29" s="127"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="78" t="s">
         <v>167</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="40">
         <v>1</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="23">
-        <v>0</v>
-      </c>
-      <c r="D31" s="24"/>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="97"/>
     </row>
     <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+      <c r="A32" s="40">
         <v>2</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="97"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="23">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26"/>
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+      <c r="A34" s="33">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="23">
-        <v>0</v>
-      </c>
-      <c r="D34" s="26"/>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+      <c r="A35" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="25">
-        <v>0</v>
-      </c>
-      <c r="D35" s="26"/>
+      <c r="C35" s="23">
+        <v>0</v>
+      </c>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+      <c r="A36" s="33">
         <v>2.4</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="23">
-        <v>0</v>
-      </c>
-      <c r="D36" s="26"/>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="33">
         <v>2.5</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="23">
-        <v>0</v>
-      </c>
-      <c r="D37" s="26"/>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="A38" s="33">
         <v>2.6</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="23">
-        <v>0</v>
-      </c>
-      <c r="D38" s="26"/>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+      <c r="A39" s="33">
         <v>2.7</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="23">
-        <v>0</v>
-      </c>
-      <c r="D39" s="26"/>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
+      <c r="A40" s="33">
         <v>2.8</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="23">
-        <v>0</v>
-      </c>
-      <c r="D40" s="26"/>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+      <c r="A41" s="33">
         <v>2.9</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="23">
-        <v>0</v>
-      </c>
-      <c r="D41" s="26"/>
+      <c r="C41" s="22">
+        <v>0</v>
+      </c>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="23">
-        <v>0</v>
-      </c>
-      <c r="D42" s="26"/>
+      <c r="C42" s="22">
+        <v>0</v>
+      </c>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="23">
-        <v>0</v>
-      </c>
-      <c r="D43" s="26"/>
+      <c r="C43" s="22">
+        <v>0</v>
+      </c>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="23">
-        <v>0</v>
-      </c>
-      <c r="D44" s="26"/>
+      <c r="C44" s="22">
+        <v>0</v>
+      </c>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="23">
-        <v>0</v>
-      </c>
-      <c r="D45" s="26"/>
+      <c r="C45" s="22">
+        <v>0</v>
+      </c>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="23">
-        <v>0</v>
-      </c>
-      <c r="D46" s="26"/>
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="23">
-        <v>0</v>
-      </c>
-      <c r="D47" s="26"/>
+      <c r="C47" s="22">
+        <v>0</v>
+      </c>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="53" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="71">
+      <c r="C48" s="66">
         <f>SUM(C33:C47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
+      <c r="A49" s="40">
         <v>3</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="25">
-        <v>0</v>
-      </c>
-      <c r="D49" s="26"/>
+      <c r="C49" s="23">
+        <v>0</v>
+      </c>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
+      <c r="A50" s="40">
         <v>4</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="25">
-        <v>0</v>
-      </c>
-      <c r="D50" s="27"/>
+      <c r="C50" s="23">
+        <v>0</v>
+      </c>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="140"/>
+      <c r="B51" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="71">
+      <c r="C51" s="66">
         <f>SUM($C31+$C48+$C49+$C50)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="30"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="30"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="78" t="s">
         <v>167</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44">
+      <c r="A54" s="40">
         <v>5</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="25">
-        <v>0</v>
-      </c>
-      <c r="D54" s="27"/>
+      <c r="C54" s="23">
+        <v>0</v>
+      </c>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="C55" s="25">
-        <v>0</v>
-      </c>
-      <c r="D55" s="27"/>
+      <c r="C55" s="23">
+        <v>0</v>
+      </c>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="25">
-        <v>0</v>
-      </c>
-      <c r="D56" s="24"/>
+      <c r="C56" s="23">
+        <v>0</v>
+      </c>
+      <c r="D56" s="97"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="25">
-        <v>0</v>
-      </c>
-      <c r="D57" s="27"/>
+      <c r="C57" s="23">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
-      <c r="B58" s="53" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="71">
+      <c r="C58" s="66">
         <f>SUM(C54:C57)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="34"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="78" t="s">
         <v>167</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="25">
-        <v>0</v>
-      </c>
-      <c r="D61" s="27"/>
+      <c r="C61" s="23">
+        <v>0</v>
+      </c>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="25">
-        <v>0</v>
-      </c>
-      <c r="D62" s="27"/>
+      <c r="C62" s="23">
+        <v>0</v>
+      </c>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="25">
-        <v>0</v>
-      </c>
-      <c r="D63" s="27"/>
+      <c r="C63" s="23">
+        <v>0</v>
+      </c>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="25">
-        <v>0</v>
-      </c>
-      <c r="D64" s="27"/>
+      <c r="C64" s="23">
+        <v>0</v>
+      </c>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="25">
-        <v>0</v>
-      </c>
-      <c r="D65" s="27"/>
+      <c r="C65" s="23">
+        <v>0</v>
+      </c>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="62" t="s">
+      <c r="A66" s="32"/>
+      <c r="B66" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="81">
+      <c r="C66" s="75">
         <f>SUM(C61:C65)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="28"/>
+      <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="28"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="78" t="s">
         <v>167</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="101">
-        <v>0</v>
-      </c>
-      <c r="D69" s="70"/>
+      <c r="C69" s="95">
+        <v>0</v>
+      </c>
+      <c r="D69" s="138"/>
     </row>
     <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="101">
-        <v>0</v>
-      </c>
-      <c r="D70" s="70"/>
+      <c r="C70" s="95">
+        <v>0</v>
+      </c>
+      <c r="D70" s="138"/>
     </row>
     <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="15">
-        <v>0</v>
-      </c>
-      <c r="D71" s="70"/>
+      <c r="C71" s="14">
+        <v>0</v>
+      </c>
+      <c r="D71" s="138"/>
     </row>
     <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="62" t="s">
+      <c r="A72" s="32"/>
+      <c r="B72" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="67">
         <f>SUM($C69:$C71)</f>
         <v>0</v>
       </c>
-      <c r="D72" s="28"/>
+      <c r="D72" s="25"/>
     </row>
     <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="28"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="78" t="s">
         <v>167</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="15">
-        <v>0</v>
-      </c>
-      <c r="D75" s="70"/>
+      <c r="C75" s="14">
+        <v>0</v>
+      </c>
+      <c r="D75" s="138"/>
     </row>
     <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="15">
-        <v>0</v>
-      </c>
-      <c r="D76" s="70"/>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="138"/>
     </row>
     <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="15">
-        <v>0</v>
-      </c>
-      <c r="D77" s="70"/>
+      <c r="C77" s="14">
+        <v>0</v>
+      </c>
+      <c r="D77" s="138"/>
     </row>
     <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="15">
-        <v>0</v>
-      </c>
-      <c r="D78" s="70"/>
+      <c r="C78" s="14">
+        <v>0</v>
+      </c>
+      <c r="D78" s="138"/>
     </row>
     <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="15">
-        <v>0</v>
-      </c>
-      <c r="D79" s="70"/>
+      <c r="C79" s="14">
+        <v>0</v>
+      </c>
+      <c r="D79" s="138"/>
     </row>
     <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="15">
-        <v>0</v>
-      </c>
-      <c r="D80" s="70"/>
+      <c r="C80" s="14">
+        <v>0</v>
+      </c>
+      <c r="D80" s="138"/>
     </row>
     <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
+      <c r="A81" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="15">
-        <v>0</v>
-      </c>
-      <c r="D81" s="70"/>
+      <c r="C81" s="14">
+        <v>0</v>
+      </c>
+      <c r="D81" s="138"/>
     </row>
     <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="53" t="s">
+      <c r="A82" s="32"/>
+      <c r="B82" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="72">
+      <c r="C82" s="67">
         <f>SUM($C75:$C81)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="28"/>
+      <c r="D82" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
@@ -5493,18 +5635,6 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5512,6 +5642,9 @@
   <headerFooter>
     <oddFooter>&amp;C© www.banana.ch/it/it&amp;R&amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="A42 A43:A47 A55:A57 A61:A65 A69:A71 A75:A81 A33" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5536,77 +5669,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="105" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114" t="str">
+      <c r="B3" s="105" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="107">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="107">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -5615,89 +5748,89 @@
       <c r="B9" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="25">
-        <v>0</v>
-      </c>
-      <c r="D10" s="24"/>
+      <c r="C10" s="23">
+        <v>0</v>
+      </c>
+      <c r="D10" s="97"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="24"/>
+      <c r="C11" s="23">
+        <v>0</v>
+      </c>
+      <c r="D11" s="97"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="25">
-        <v>0</v>
-      </c>
-      <c r="D12" s="26"/>
+      <c r="C12" s="23">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="26"/>
+      <c r="C13" s="23">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="26"/>
+      <c r="C14" s="23">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="66">
         <f>SUM(C10:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -5706,191 +5839,191 @@
       <c r="B17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="26"/>
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="26"/>
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="25">
-        <v>0</v>
-      </c>
-      <c r="D20" s="26"/>
+      <c r="C20" s="23">
+        <v>0</v>
+      </c>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="26"/>
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="26"/>
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="25">
-        <v>0</v>
-      </c>
-      <c r="D23" s="26"/>
+      <c r="C23" s="23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="25">
-        <v>0</v>
-      </c>
-      <c r="D24" s="26"/>
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="26"/>
+      <c r="C25" s="23">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="25">
-        <v>0</v>
-      </c>
-      <c r="D26" s="26"/>
+      <c r="C26" s="23">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="25">
-        <v>0</v>
-      </c>
-      <c r="D27" s="26"/>
+      <c r="C27" s="23">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="25">
-        <v>0</v>
-      </c>
-      <c r="D28" s="26"/>
+      <c r="C28" s="23">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="25">
-        <v>0</v>
-      </c>
-      <c r="D29" s="26"/>
+      <c r="C29" s="23">
+        <v>0</v>
+      </c>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="25">
-        <v>0</v>
-      </c>
-      <c r="D30" s="26"/>
+      <c r="C30" s="23">
+        <v>0</v>
+      </c>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="25">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26"/>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="82" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="83">
+      <c r="C32" s="77">
         <f>SUM(C18:C31)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5906,6 +6039,9 @@
   <headerFooter>
     <oddFooter>&amp;C© www.banana.ch/it/it&amp;R&amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="A10:A14 A18:A31" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5916,8 +6052,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5925,997 +6061,1003 @@
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" style="63"/>
-    <col min="9" max="9" width="2" style="63" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="63" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="63" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="63" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" style="59"/>
+    <col min="9" max="9" width="2" style="59" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="59" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="59" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="59" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="134" t="str">
+      <c r="B2" s="132" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="134" t="str">
+      <c r="B3" s="132" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="135">
+      <c r="B4" s="133">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="135">
+      <c r="B5" s="133">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="134" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="139"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="82" t="s">
         <v>167</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="89">
-        <v>0</v>
-      </c>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
+      <c r="C10" s="83">
+        <v>0</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="89">
-        <v>0</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
+      <c r="C11" s="83">
+        <v>0</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="89">
-        <v>0</v>
-      </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
+      <c r="C12" s="83">
+        <v>0</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="87">
         <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-    </row>
-    <row r="15" spans="1:12" s="96" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+    </row>
+    <row r="15" spans="1:12" s="90" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="82" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="89">
-        <v>0</v>
-      </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
+      <c r="C16" s="83">
+        <v>0</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="89">
-        <v>0</v>
-      </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="C17" s="83">
+        <v>0</v>
+      </c>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="89">
-        <v>0</v>
-      </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
+      <c r="C18" s="83">
+        <v>0</v>
+      </c>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="95">
+      <c r="A19" s="89">
         <v>7.2</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="93">
+      <c r="C19" s="87">
         <f>SUM(C16:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
     </row>
     <row r="21" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="82" t="s">
         <v>167</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="102">
-        <v>0</v>
-      </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="96">
+        <v>0</v>
+      </c>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="102">
-        <v>0</v>
-      </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="96">
+        <v>0</v>
+      </c>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="102">
-        <v>0</v>
-      </c>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="96">
+        <v>0</v>
+      </c>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="87">
+      <c r="A25" s="81">
         <v>7.21</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="93">
+      <c r="C25" s="87">
         <f>SUM(C22:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
     </row>
     <row r="27" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="82" t="s">
         <v>167</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="133" t="s">
+      <c r="D27" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="92">
-        <v>0</v>
-      </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="86">
+        <v>0</v>
+      </c>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="92">
-        <v>0</v>
-      </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="86">
+        <v>0</v>
+      </c>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="92">
-        <v>0</v>
-      </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="86">
+        <v>0</v>
+      </c>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="87">
+      <c r="A31" s="81">
         <v>7.18</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="93">
+      <c r="C31" s="87">
         <f>SUM(C28:C30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="33" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="82" t="s">
         <v>167</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="133" t="s">
+      <c r="D33" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="92">
-        <v>0</v>
-      </c>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="137"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="86">
+        <v>0</v>
+      </c>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="92">
-        <v>0</v>
-      </c>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="86">
+        <v>0</v>
+      </c>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="92">
-        <v>0</v>
-      </c>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="86">
+        <v>0</v>
+      </c>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
     </row>
     <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="93">
+      <c r="C37" s="87">
         <f>SUM(C34:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="133" t="s">
+      <c r="D39" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="92">
-        <v>0</v>
-      </c>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="86">
+        <v>0</v>
+      </c>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="129"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="92">
-        <v>0</v>
-      </c>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="137"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="86">
+        <v>0</v>
+      </c>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="92">
-        <v>0</v>
-      </c>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
-      <c r="L42" s="137"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="86">
+        <v>0</v>
+      </c>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="129"/>
     </row>
     <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="C43" s="93">
+      <c r="C43" s="87">
         <f>SUM(C40:C42)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="87"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C45" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="133" t="s">
+      <c r="D45" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="130"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="92">
-        <v>0</v>
-      </c>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="137"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="86">
+        <v>0</v>
+      </c>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="129"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="87"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="92">
-        <v>0</v>
-      </c>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="137"/>
-      <c r="L47" s="137"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="86">
+        <v>0</v>
+      </c>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="129"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="92">
-        <v>0</v>
-      </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="137"/>
-      <c r="L48" s="137"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="86">
+        <v>0</v>
+      </c>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="C49" s="93">
+      <c r="C49" s="87">
         <f>SUM(C46:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
     </row>
     <row r="51" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="82" t="s">
         <v>167</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="94" t="s">
+      <c r="C51" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="133" t="s">
+      <c r="D51" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="133"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="87"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="92">
-        <v>0</v>
-      </c>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="137"/>
-      <c r="L52" s="137"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="86">
+        <v>0</v>
+      </c>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="87"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="92">
-        <v>0</v>
-      </c>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="137"/>
-      <c r="L53" s="137"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="86">
+        <v>0</v>
+      </c>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="87"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="92">
-        <v>0</v>
-      </c>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="137"/>
-      <c r="L54" s="137"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="86">
+        <v>0</v>
+      </c>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
+      <c r="L54" s="129"/>
     </row>
     <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="C55" s="93">
+      <c r="C55" s="87">
         <f>SUM(C52:C54)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="138"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138"/>
-      <c r="L55" s="138"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="D52:L52"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D51:L51"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="A6:L8"/>
     <mergeCell ref="D55:L55"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D11:L11"/>
@@ -6928,25 +7070,19 @@
     <mergeCell ref="D30:L30"/>
     <mergeCell ref="D34:L34"/>
     <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="A6:L8"/>
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="D27:L27"/>
     <mergeCell ref="D33:L33"/>
     <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D46:L46"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D51:L51"/>
     <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>

--- a/noprofit/en/11255/inpag-template.xlsx
+++ b/noprofit/en/11255/inpag-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\noprofit\en\11255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44820CC8-AE92-4FB9-82EA-52E5190E96B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA30A08-D3BB-461A-8F2F-997CC750366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" firstSheet="4" activeTab="4" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Cash flow statement - indirect'!$A$1:$E$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'General information'!$A$1:$G$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Notes of cash flow statement'!$A$1:$L$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Notes of cash flow statement'!$A$1:$L$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Notes of financial statement'!$A$1:$D$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Notes of income statement'!$A$1:$D$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Statement of changes in equity'!$A$1:$E$24</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="277">
   <si>
     <t>Company name and legal form</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Net cash flows from operating activities</t>
   </si>
   <si>
-    <t>7.4e</t>
-  </si>
-  <si>
     <t>Cash flows from investing activities</t>
   </si>
   <si>
@@ -531,21 +528,12 @@
     <t>Explanation of investing and financing transactions not requiring use of cash or cash equivalents</t>
   </si>
   <si>
-    <t>7.19 a</t>
-  </si>
-  <si>
     <t>Description of acquisition of assets by assuming directly related liabilities or means of finance lease</t>
   </si>
   <si>
-    <t>7.19 b</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description of acquisition of entity by means of equity issue </t>
   </si>
   <si>
-    <t>7.19 c</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description of conversion of debt to equity </t>
   </si>
   <si>
@@ -729,21 +717,6 @@
     <t>Total expenses</t>
   </si>
   <si>
-    <t>Income taxes paid (refund)</t>
-  </si>
-  <si>
-    <t>Income taxes [-] paid [+] refund, classified as operating activities</t>
-  </si>
-  <si>
-    <t>Income taxes [-] paid [+] refund, classified as investing activities</t>
-  </si>
-  <si>
-    <t>Income taxes [-] paid [+] refund, classified as financing activities</t>
-  </si>
-  <si>
-    <t>Total income taxes paid (refund)</t>
-  </si>
-  <si>
     <t>Cash and cash equivalents if different from statement of financial position</t>
   </si>
   <si>
@@ -778,9 +751,6 @@
   </si>
   <si>
     <t>Total Commentary by management on significant cash and cash equivalent balances held by entity that are not available for use by group</t>
-  </si>
-  <si>
-    <t>7.19 d</t>
   </si>
   <si>
     <t>Total Surplus or deficit from operating activities</t>
@@ -1086,40 +1056,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1147,7 +1088,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1256,19 +1197,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1307,7 +1239,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1383,9 +1315,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1410,26 +1339,35 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1440,18 +1378,6 @@
     <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1476,67 +1402,82 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1920,7 +1861,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1934,7 +1875,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -1944,322 +1885,316 @@
       <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100" t="s">
+      <c r="A2" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="133">
         <v>45292</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="133">
         <v>45657</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="98" t="s">
+      <c r="A18" s="131"/>
+      <c r="B18" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="131"/>
+      <c r="B19" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="104" t="s">
+      <c r="A20" s="131"/>
+      <c r="B20" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="98" t="s">
+      <c r="A23" s="131"/>
+      <c r="B23" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="98" t="s">
+      <c r="A24" s="131"/>
+      <c r="B24" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="131"/>
+      <c r="B25" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="131"/>
+      <c r="B26" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="98" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="98" t="s">
+      <c r="A28" s="131"/>
+      <c r="B28" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:G16"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
@@ -2276,6 +2211,12 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G16"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -2309,87 +2250,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="107">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2398,23 +2339,23 @@
       <c r="C9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="75">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
@@ -2423,7 +2364,7 @@
       <c r="B11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="136">
+      <c r="C11" s="94">
         <v>1</v>
       </c>
       <c r="D11" s="14">
@@ -2440,7 +2381,7 @@
       <c r="B12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="136">
+      <c r="C12" s="94">
         <v>2</v>
       </c>
       <c r="D12" s="14">
@@ -2457,7 +2398,7 @@
       <c r="B13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="136">
+      <c r="C13" s="94">
         <v>3</v>
       </c>
       <c r="D13" s="14">
@@ -2474,7 +2415,7 @@
       <c r="B14" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="136">
+      <c r="C14" s="94">
         <v>4</v>
       </c>
       <c r="D14" s="14">
@@ -2486,15 +2427,15 @@
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="45"/>
-      <c r="D15" s="66">
+      <c r="D15" s="63">
         <f>SUM(D11:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="63">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
@@ -2508,12 +2449,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -2522,7 +2463,7 @@
       <c r="B18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="136">
+      <c r="C18" s="94">
         <v>5</v>
       </c>
       <c r="D18" s="14">
@@ -2534,12 +2475,12 @@
     </row>
     <row r="19" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="136">
+        <v>258</v>
+      </c>
+      <c r="C19" s="94">
         <v>6</v>
       </c>
       <c r="D19" s="14">
@@ -2556,7 +2497,7 @@
       <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="136">
+      <c r="C20" s="94">
         <v>7</v>
       </c>
       <c r="D20" s="14">
@@ -2573,7 +2514,7 @@
       <c r="B21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="136">
+      <c r="C21" s="94">
         <v>8</v>
       </c>
       <c r="D21" s="14">
@@ -2585,30 +2526,30 @@
     </row>
     <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="55" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="45"/>
-      <c r="D22" s="67">
+      <c r="D22" s="64">
         <f>SUM(D18:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="64">
         <f>SUM(E18:E21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="67">
+      <c r="C23" s="46"/>
+      <c r="D23" s="64">
         <f>SUM(D15,D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="64">
         <f>SUM(E15,E22)</f>
         <v>0</v>
       </c>
@@ -2621,7 +2562,7 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="75" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -2630,23 +2571,23 @@
       <c r="C25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="78">
+      <c r="D25" s="75">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
     </row>
     <row r="27" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -2655,7 +2596,7 @@
       <c r="B27" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="136">
+      <c r="C27" s="94">
         <v>9</v>
       </c>
       <c r="D27" s="14">
@@ -2672,7 +2613,7 @@
       <c r="B28" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="136">
+      <c r="C28" s="94">
         <v>10</v>
       </c>
       <c r="D28" s="14">
@@ -2689,7 +2630,7 @@
       <c r="B29" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="136">
+      <c r="C29" s="94">
         <v>11</v>
       </c>
       <c r="D29" s="14">
@@ -2706,7 +2647,7 @@
       <c r="B30" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="136">
+      <c r="C30" s="94">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -2723,7 +2664,7 @@
       <c r="B31" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="136">
+      <c r="C31" s="94">
         <v>13</v>
       </c>
       <c r="D31" s="14">
@@ -2735,15 +2676,15 @@
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="45"/>
-      <c r="D32" s="66">
+      <c r="D32" s="63">
         <f>SUM(D27:D31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="63">
         <f>SUM(E27:E31)</f>
         <v>0</v>
       </c>
@@ -2757,12 +2698,12 @@
     </row>
     <row r="34" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
     </row>
     <row r="35" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
@@ -2771,7 +2712,7 @@
       <c r="B35" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="136">
+      <c r="C35" s="94">
         <v>14</v>
       </c>
       <c r="D35" s="14">
@@ -2788,7 +2729,7 @@
       <c r="B36" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="136">
+      <c r="C36" s="94">
         <v>15</v>
       </c>
       <c r="D36" s="14">
@@ -2805,7 +2746,7 @@
       <c r="B37" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="136">
+      <c r="C37" s="94">
         <v>16</v>
       </c>
       <c r="D37" s="14">
@@ -2817,15 +2758,15 @@
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="55" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="45"/>
-      <c r="D38" s="66">
+      <c r="D38" s="63">
         <f>SUM(D35:D37)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="63">
         <f>SUM(E35:E37)</f>
         <v>0</v>
       </c>
@@ -2839,12 +2780,12 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
     </row>
     <row r="41" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
@@ -2853,7 +2794,7 @@
       <c r="B41" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="136">
+      <c r="C41" s="94">
         <v>17</v>
       </c>
       <c r="D41" s="14">
@@ -2870,7 +2811,7 @@
       <c r="B42" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="136">
+      <c r="C42" s="94">
         <v>18</v>
       </c>
       <c r="D42" s="14">
@@ -2887,7 +2828,7 @@
       <c r="B43" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="136">
+      <c r="C43" s="94">
         <v>19</v>
       </c>
       <c r="D43" s="14">
@@ -2904,7 +2845,7 @@
       <c r="B44" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="136">
+      <c r="C44" s="94">
         <v>20</v>
       </c>
       <c r="D44" s="14">
@@ -2921,7 +2862,7 @@
       <c r="B45" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="136">
+      <c r="C45" s="94">
         <v>21</v>
       </c>
       <c r="D45" s="14">
@@ -2938,7 +2879,7 @@
       <c r="B46" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="136">
+      <c r="C46" s="94">
         <v>22</v>
       </c>
       <c r="D46" s="14">
@@ -2955,7 +2896,7 @@
       <c r="B47" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="136">
+      <c r="C47" s="94">
         <v>23</v>
       </c>
       <c r="D47" s="14">
@@ -2967,73 +2908,73 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="66">
+      <c r="C48" s="103"/>
+      <c r="D48" s="63">
         <f>SUM(D41:D47)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="66">
+      <c r="E48" s="63">
         <f>SUM(E41:E47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
-      <c r="B49" s="111" t="s">
+      <c r="B49" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="66">
+      <c r="C49" s="103"/>
+      <c r="D49" s="63">
         <f>SUM(D32,D38,D48)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="66">
+      <c r="E49" s="63">
         <f>SUM(E32,E38,E48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="50"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="110" t="str">
+      <c r="B52" s="102" t="str">
         <f>IF((D15+D23+D32=D38+D48),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C52" s="110"/>
-      <c r="D52" s="57">
+      <c r="C52" s="102"/>
+      <c r="D52" s="54">
         <f>D49-D23</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="109" t="str">
+      <c r="B53" s="101" t="str">
         <f>IF((E15+E23+E32=E38+E48),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="57">
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="54">
         <f>E49-E23</f>
         <v>0</v>
       </c>
@@ -3046,6 +2987,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B52:C52"/>
@@ -3056,11 +3002,6 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B52">
@@ -3101,8 +3042,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3119,13 +3060,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -3133,75 +3074,75 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="113" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="114">
+      <c r="B4" s="109">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="114">
+      <c r="B5" s="109">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -3210,23 +3151,23 @@
       <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="87">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="87">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="48" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="137">
+      <c r="C10" s="95">
         <v>24</v>
       </c>
       <c r="D10" s="19">
@@ -3237,13 +3178,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="48" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="137">
+      <c r="C11" s="95">
         <v>25</v>
       </c>
       <c r="D11" s="19">
@@ -3254,13 +3195,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="48" t="s">
         <v>92</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="137">
+      <c r="C12" s="95">
         <v>26</v>
       </c>
       <c r="D12" s="19">
@@ -3271,13 +3212,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="137">
+      <c r="C13" s="95">
         <v>27</v>
       </c>
       <c r="D13" s="19">
@@ -3288,13 +3229,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="48" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="137">
+      <c r="C14" s="95">
         <v>28</v>
       </c>
       <c r="D14" s="19">
@@ -3305,29 +3246,29 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="68" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69">
+      <c r="C15" s="65"/>
+      <c r="D15" s="66">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="66">
         <f>SUM(E10:E14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="75" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -3336,23 +3277,23 @@
       <c r="C17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="87">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="87">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="48" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="137">
+      <c r="C18" s="95">
         <v>29</v>
       </c>
       <c r="D18" s="19">
@@ -3363,13 +3304,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="48" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="137">
+      <c r="C19" s="95">
         <v>30</v>
       </c>
       <c r="D19" s="19">
@@ -3380,13 +3321,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="48" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="137">
+      <c r="C20" s="95">
         <v>31</v>
       </c>
       <c r="D20" s="19">
@@ -3397,13 +3338,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="48" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="137">
+      <c r="C21" s="95">
         <v>32</v>
       </c>
       <c r="D21" s="19">
@@ -3414,13 +3355,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="48" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="137">
+      <c r="C22" s="95">
         <v>33</v>
       </c>
       <c r="D22" s="19">
@@ -3431,13 +3372,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="48" t="s">
         <v>110</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="137">
+      <c r="C23" s="95">
         <v>34</v>
       </c>
       <c r="D23" s="19">
@@ -3448,13 +3389,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="48" t="s">
         <v>112</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="137">
+      <c r="C24" s="95">
         <v>35</v>
       </c>
       <c r="D24" s="19">
@@ -3465,13 +3406,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="48" t="s">
         <v>114</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="137">
+      <c r="C25" s="95">
         <v>36</v>
       </c>
       <c r="D25" s="19">
@@ -3482,54 +3423,54 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69">
+      <c r="C26" s="65"/>
+      <c r="D26" s="66">
         <f>SUM(D18:D25)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="66">
         <f>SUM(E18:E25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="18"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="57" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="91">
+      <c r="D28" s="87">
         <f>$B$4</f>
         <v>45292</v>
       </c>
-      <c r="E28" s="91">
+      <c r="E28" s="87">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="48" t="s">
         <v>118</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="137">
+      <c r="C29" s="95">
         <v>37</v>
       </c>
       <c r="D29" s="19">
@@ -3540,13 +3481,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="48" t="s">
         <v>120</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="137">
+      <c r="C30" s="95">
         <v>38</v>
       </c>
       <c r="D30" s="19">
@@ -3557,13 +3498,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="48" t="s">
         <v>122</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="137">
+      <c r="C31" s="95">
         <v>39</v>
       </c>
       <c r="D31" s="19">
@@ -3574,13 +3515,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="48" t="s">
         <v>124</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="137">
+      <c r="C32" s="95">
         <v>40</v>
       </c>
       <c r="D32" s="19">
@@ -3591,13 +3532,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="48" t="s">
         <v>126</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="137">
+      <c r="C33" s="95">
         <v>41</v>
       </c>
       <c r="D33" s="19">
@@ -3608,13 +3549,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="48" t="s">
         <v>128</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="137">
+      <c r="C34" s="95">
         <v>42</v>
       </c>
       <c r="D34" s="19">
@@ -3625,31 +3566,31 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="93" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94">
+      <c r="A35" s="48"/>
+      <c r="B35" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90">
         <f>SUM($D29:$D34)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="90">
         <f>SUM($E29:$E34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="70">
+      <c r="C36" s="65"/>
+      <c r="D36" s="67">
         <f>SUM(D15+D26+D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="67">
         <f>SUM(E15+E26+E35)</f>
         <v>0</v>
       </c>
@@ -3684,7 +3625,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3698,13 +3639,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3713,86 +3654,86 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="107">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="78">
+      <c r="C9" s="76"/>
+      <c r="D9" s="75">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
@@ -3801,10 +3742,10 @@
       <c r="A10" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="115"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="14">
         <v>0</v>
       </c>
@@ -3812,24 +3753,24 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="78">
+      <c r="C12" s="76"/>
+      <c r="D12" s="75">
         <f>DATE(YEAR(B5),1,1)</f>
         <v>45292</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
@@ -3838,11 +3779,11 @@
       <c r="A13" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="117" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
+      <c r="B13" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="14">
         <v>0</v>
       </c>
@@ -3851,111 +3792,111 @@
       <c r="A14" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="71">
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="68">
         <f>SUM(E13:E14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="75" t="s">
         <v>133</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="80">
+      <c r="D17" s="77">
         <f>DATE(YEAR(B4),1,1)</f>
         <v>45292</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" s="118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="117" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="71">
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="68">
         <f>SUM(E18:E21)</f>
         <v>0</v>
       </c>
@@ -3963,27 +3904,32 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="66">
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="63">
         <f>SUM(D10,E15,E22)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B24:D24"/>
@@ -3995,11 +3941,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -4016,7 +3957,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4031,98 +3972,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="107">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="121" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="78" t="s">
+      <c r="B9" s="115" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
@@ -4131,47 +4072,47 @@
       <c r="A10" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="111" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
+      <c r="B10" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
     </row>
     <row r="12" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="78" t="s">
+      <c r="C12" s="115"/>
+      <c r="D12" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="136">
+      <c r="C13" s="113"/>
+      <c r="D13" s="94">
         <v>26</v>
       </c>
       <c r="E13" s="22">
@@ -4181,13 +4122,13 @@
     </row>
     <row r="14" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="136">
+      <c r="C14" s="113"/>
+      <c r="D14" s="94">
         <v>32</v>
       </c>
       <c r="E14" s="22">
@@ -4196,13 +4137,13 @@
     </row>
     <row r="15" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="136">
+      <c r="C15" s="113"/>
+      <c r="D15" s="94">
         <v>36</v>
       </c>
       <c r="E15" s="22">
@@ -4211,13 +4152,13 @@
     </row>
     <row r="16" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="136">
+      <c r="C16" s="113"/>
+      <c r="D16" s="94">
         <v>33</v>
       </c>
       <c r="E16" s="22">
@@ -4226,13 +4167,13 @@
     </row>
     <row r="17" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="136">
+      <c r="C17" s="113"/>
+      <c r="D17" s="94">
         <v>34</v>
       </c>
       <c r="E17" s="22">
@@ -4241,13 +4182,13 @@
     </row>
     <row r="18" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="136">
+      <c r="C18" s="113"/>
+      <c r="D18" s="94">
         <v>35</v>
       </c>
       <c r="E18" s="22">
@@ -4257,13 +4198,13 @@
     </row>
     <row r="19" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="B19" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="136">
+      <c r="C19" s="113"/>
+      <c r="D19" s="94">
         <v>27</v>
       </c>
       <c r="E19" s="22">
@@ -4273,13 +4214,13 @@
     </row>
     <row r="20" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B20" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="136">
+      <c r="C20" s="113"/>
+      <c r="D20" s="94">
         <v>28</v>
       </c>
       <c r="E20" s="22">
@@ -4288,13 +4229,13 @@
     </row>
     <row r="21" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="B21" s="118" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="136">
+      <c r="C21" s="113"/>
+      <c r="D21" s="94">
         <v>37</v>
       </c>
       <c r="E21" s="22">
@@ -4304,13 +4245,13 @@
     </row>
     <row r="22" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B22" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="136">
+      <c r="C22" s="113"/>
+      <c r="D22" s="94">
         <v>38</v>
       </c>
       <c r="E22" s="22">
@@ -4320,13 +4261,13 @@
     </row>
     <row r="23" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="136">
+      <c r="C23" s="113"/>
+      <c r="D23" s="94">
         <v>39</v>
       </c>
       <c r="E23" s="22">
@@ -4336,13 +4277,13 @@
     </row>
     <row r="24" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="136">
+      <c r="C24" s="113"/>
+      <c r="D24" s="94">
         <v>40</v>
       </c>
       <c r="E24" s="22">
@@ -4352,13 +4293,13 @@
     </row>
     <row r="25" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="136">
+      <c r="C25" s="114"/>
+      <c r="D25" s="94">
         <v>41</v>
       </c>
       <c r="E25" s="22">
@@ -4368,13 +4309,13 @@
     </row>
     <row r="26" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="136">
+      <c r="C26" s="114"/>
+      <c r="D26" s="94">
         <v>42</v>
       </c>
       <c r="E26" s="22">
@@ -4384,13 +4325,13 @@
     </row>
     <row r="27" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="B27" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="136">
+      <c r="C27" s="113"/>
+      <c r="D27" s="94">
         <v>25</v>
       </c>
       <c r="E27" s="22">
@@ -4400,12 +4341,12 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="66">
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="63">
         <f>E10+SUM(E13:E27)</f>
         <v>0</v>
       </c>
@@ -4418,30 +4359,30 @@
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="78" t="s">
+      <c r="B30" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="136">
+      <c r="C31" s="114"/>
+      <c r="D31" s="94">
         <v>29</v>
       </c>
       <c r="E31" s="22">
@@ -4450,13 +4391,13 @@
     </row>
     <row r="32" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="136">
+      <c r="C32" s="114"/>
+      <c r="D32" s="94">
         <v>30</v>
       </c>
       <c r="E32" s="22">
@@ -4465,13 +4406,13 @@
     </row>
     <row r="33" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="136">
+      <c r="C33" s="114"/>
+      <c r="D33" s="94">
         <v>31</v>
       </c>
       <c r="E33" s="22">
@@ -4480,12 +4421,12 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
-      <c r="B34" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="66">
+      <c r="B34" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="63">
         <f>E10+E28+SUM(E31:E33)</f>
         <v>0</v>
       </c>
@@ -4495,20 +4436,20 @@
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="72"/>
+      <c r="E35" s="69"/>
     </row>
     <row r="36" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="121" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="78" t="s">
+      <c r="B36" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="115"/>
+      <c r="D36" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
@@ -4516,13 +4457,13 @@
     </row>
     <row r="37" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="136">
+      <c r="C37" s="114"/>
+      <c r="D37" s="94">
         <v>24</v>
       </c>
       <c r="E37" s="22">
@@ -4531,12 +4472,12 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="66">
+      <c r="B38" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="63">
         <f>E10+E28+E34+SUM(E37:E37)</f>
         <v>0</v>
       </c>
@@ -4546,16 +4487,16 @@
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="72"/>
+      <c r="E39" s="69"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="66">
+      <c r="B40" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="63">
         <f>SUM(E28,E34,E38)</f>
         <v>0</v>
       </c>
@@ -4565,65 +4506,65 @@
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
-      <c r="E41" s="72"/>
+      <c r="E41" s="69"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="111" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="139">
+      <c r="B43" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="103"/>
+      <c r="D43" s="97">
         <v>43</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="70">
         <f>E40+E42</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
-      <c r="B44" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="73">
+      <c r="B44" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="70">
         <f>'Statement of financial position'!D22</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
-      <c r="B45" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="73">
+      <c r="B45" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="70">
         <f>'Statement of financial position'!E22</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="111" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="73">
+      <c r="B46" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="70">
         <f>E45-E44</f>
         <v>0</v>
       </c>
@@ -4644,8 +4585,8 @@
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
-      <c r="B49" s="61" t="s">
-        <v>157</v>
+      <c r="B49" s="58" t="s">
+        <v>156</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
@@ -4653,57 +4594,57 @@
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="30">
-        <v>7.18</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="136"/>
+      <c r="B50" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="116"/>
+      <c r="D50" s="94">
+        <v>44</v>
+      </c>
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="136"/>
+      <c r="B51" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="116"/>
+      <c r="D51" s="94">
+        <v>45</v>
+      </c>
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="136"/>
+      <c r="B52" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="116"/>
+      <c r="D52" s="94">
+        <v>46</v>
+      </c>
       <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="136"/>
+      <c r="B53" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="116"/>
+      <c r="D53" s="94">
+        <v>47</v>
+      </c>
       <c r="E53" s="31"/>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="30">
-        <v>7.21</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="136"/>
+      <c r="B54" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="116"/>
+      <c r="D54" s="94">
+        <v>48</v>
+      </c>
       <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4721,12 +4662,32 @@
       <c r="E56" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="45">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B34:D34"/>
@@ -4737,31 +4698,16 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
@@ -4778,7 +4724,7 @@
   </sheetPr>
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4792,215 +4738,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="107">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
+      <c r="A9" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="124"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="124"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
-        <v>167</v>
+      <c r="A30" s="75" t="s">
+        <v>163</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>34</v>
@@ -5016,24 +4962,24 @@
       <c r="C31" s="22">
         <v>0</v>
       </c>
-      <c r="D31" s="97"/>
+      <c r="D31" s="93"/>
     </row>
     <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>2</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="97"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="93"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C33" s="22">
         <v>0</v>
@@ -5045,7 +4991,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C34" s="22">
         <v>0</v>
@@ -5057,7 +5003,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C35" s="23">
         <v>0</v>
@@ -5069,7 +5015,7 @@
         <v>2.4</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C36" s="22">
         <v>0</v>
@@ -5081,7 +5027,7 @@
         <v>2.5</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C37" s="22">
         <v>0</v>
@@ -5093,7 +5039,7 @@
         <v>2.6</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C38" s="22">
         <v>0</v>
@@ -5105,7 +5051,7 @@
         <v>2.7</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C39" s="22">
         <v>0</v>
@@ -5117,7 +5063,7 @@
         <v>2.8</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C40" s="22">
         <v>0</v>
@@ -5129,7 +5075,7 @@
         <v>2.9</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C41" s="22">
         <v>0</v>
@@ -5138,10 +5084,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C42" s="22">
         <v>0</v>
@@ -5150,10 +5096,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C43" s="22">
         <v>0</v>
@@ -5162,10 +5108,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C44" s="22">
         <v>0</v>
@@ -5174,10 +5120,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C45" s="22">
         <v>0</v>
@@ -5186,10 +5132,10 @@
     </row>
     <row r="46" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C46" s="22">
         <v>0</v>
@@ -5198,10 +5144,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C47" s="22">
         <v>0</v>
@@ -5210,10 +5156,10 @@
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
-      <c r="B48" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="66">
+      <c r="B48" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="63">
         <f>SUM(C33:C47)</f>
         <v>0</v>
       </c>
@@ -5224,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C49" s="23">
         <v>0</v>
@@ -5244,11 +5190,11 @@
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="140"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="98"/>
+      <c r="B51" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="66">
+      <c r="C51" s="63">
         <f>SUM($C31+$C48+$C49+$C50)</f>
         <v>0</v>
       </c>
@@ -5261,14 +5207,14 @@
       <c r="D52" s="27"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78" t="s">
-        <v>167</v>
+      <c r="A53" s="75" t="s">
+        <v>163</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>34</v>
@@ -5288,10 +5234,10 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C55" s="23">
         <v>0</v>
@@ -5300,7 +5246,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B56" s="45" t="s">
         <v>47</v>
@@ -5308,11 +5254,11 @@
       <c r="C56" s="23">
         <v>0</v>
       </c>
-      <c r="D56" s="97"/>
+      <c r="D56" s="93"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>48</v>
@@ -5324,10 +5270,10 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="66">
+      <c r="C58" s="63">
         <f>SUM(C54:C57)</f>
         <v>0</v>
       </c>
@@ -5340,14 +5286,14 @@
       <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="78" t="s">
-        <v>167</v>
+      <c r="A60" s="75" t="s">
+        <v>163</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>34</v>
@@ -5355,7 +5301,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B61" s="38" t="s">
         <v>54</v>
@@ -5367,7 +5313,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>56</v>
@@ -5379,7 +5325,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B63" s="38" t="s">
         <v>58</v>
@@ -5391,7 +5337,7 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B64" s="38" t="s">
         <v>59</v>
@@ -5403,7 +5349,7 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B65" s="38" t="s">
         <v>61</v>
@@ -5415,10 +5361,10 @@
     </row>
     <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
-      <c r="B66" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" s="75">
+      <c r="B66" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="72">
         <f>SUM(C61:C65)</f>
         <v>0</v>
       </c>
@@ -5431,14 +5377,14 @@
       <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="78" t="s">
-        <v>167</v>
+      <c r="A68" s="75" t="s">
+        <v>163</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>34</v>
@@ -5446,31 +5392,31 @@
     </row>
     <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B69" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="95">
-        <v>0</v>
-      </c>
-      <c r="D69" s="138"/>
+      <c r="C69" s="91">
+        <v>0</v>
+      </c>
+      <c r="D69" s="96"/>
     </row>
     <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B70" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="95">
-        <v>0</v>
-      </c>
-      <c r="D70" s="138"/>
+      <c r="C70" s="91">
+        <v>0</v>
+      </c>
+      <c r="D70" s="96"/>
     </row>
     <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>68</v>
@@ -5478,14 +5424,14 @@
       <c r="C71" s="14">
         <v>0</v>
       </c>
-      <c r="D71" s="138"/>
+      <c r="D71" s="96"/>
     </row>
     <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="67">
+      <c r="C72" s="64">
         <f>SUM($C69:$C71)</f>
         <v>0</v>
       </c>
@@ -5498,14 +5444,14 @@
       <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="78" t="s">
-        <v>167</v>
+      <c r="A74" s="75" t="s">
+        <v>163</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>34</v>
@@ -5513,7 +5459,7 @@
     </row>
     <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B75" s="38" t="s">
         <v>72</v>
@@ -5521,11 +5467,11 @@
       <c r="C75" s="14">
         <v>0</v>
       </c>
-      <c r="D75" s="138"/>
+      <c r="D75" s="96"/>
     </row>
     <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B76" s="38" t="s">
         <v>73</v>
@@ -5533,11 +5479,11 @@
       <c r="C76" s="14">
         <v>0</v>
       </c>
-      <c r="D76" s="138"/>
+      <c r="D76" s="96"/>
     </row>
     <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>75</v>
@@ -5545,11 +5491,11 @@
       <c r="C77" s="14">
         <v>0</v>
       </c>
-      <c r="D77" s="138"/>
+      <c r="D77" s="96"/>
     </row>
     <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>77</v>
@@ -5557,11 +5503,11 @@
       <c r="C78" s="14">
         <v>0</v>
       </c>
-      <c r="D78" s="138"/>
+      <c r="D78" s="96"/>
     </row>
     <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B79" s="38" t="s">
         <v>79</v>
@@ -5569,11 +5515,11 @@
       <c r="C79" s="14">
         <v>0</v>
       </c>
-      <c r="D79" s="138"/>
+      <c r="D79" s="96"/>
     </row>
     <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B80" s="38" t="s">
         <v>81</v>
@@ -5581,11 +5527,11 @@
       <c r="C80" s="14">
         <v>0</v>
       </c>
-      <c r="D80" s="138"/>
+      <c r="D80" s="96"/>
     </row>
     <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B81" s="38" t="s">
         <v>83</v>
@@ -5593,14 +5539,14 @@
       <c r="C81" s="14">
         <v>0</v>
       </c>
-      <c r="D81" s="138"/>
+      <c r="D81" s="96"/>
     </row>
     <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
-      <c r="B82" s="49" t="s">
+      <c r="B82" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="67">
+      <c r="C82" s="64">
         <f>SUM($C75:$C81)</f>
         <v>0</v>
       </c>
@@ -5608,18 +5554,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
@@ -5635,6 +5569,18 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5655,8 +5601,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5669,95 +5615,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="107">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>169</v>
+        <v>199</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>165</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>205</v>
+      <c r="A10" s="140" t="s">
+        <v>201</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>89</v>
@@ -5765,11 +5711,11 @@
       <c r="C10" s="23">
         <v>0</v>
       </c>
-      <c r="D10" s="97"/>
+      <c r="D10" s="93"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>206</v>
+      <c r="A11" s="140" t="s">
+        <v>202</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>91</v>
@@ -5777,11 +5723,11 @@
       <c r="C11" s="23">
         <v>0</v>
       </c>
-      <c r="D11" s="97"/>
+      <c r="D11" s="93"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>207</v>
+      <c r="A12" s="140" t="s">
+        <v>203</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>93</v>
@@ -5792,8 +5738,8 @@
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>208</v>
+      <c r="A13" s="140" t="s">
+        <v>204</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>95</v>
@@ -5804,8 +5750,8 @@
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>210</v>
+      <c r="A14" s="140" t="s">
+        <v>206</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>97</v>
@@ -5817,10 +5763,10 @@
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
-      <c r="B15" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="66">
+      <c r="B15" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="63">
         <f>SUM(C10:C14)</f>
         <v>0</v>
       </c>
@@ -5834,21 +5780,21 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="92" t="s">
-        <v>169</v>
+      <c r="C17" s="88" t="s">
+        <v>165</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>211</v>
+      <c r="A18" s="140" t="s">
+        <v>207</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>99</v>
@@ -5859,8 +5805,8 @@
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>212</v>
+      <c r="A19" s="140" t="s">
+        <v>208</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>101</v>
@@ -5871,8 +5817,8 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>213</v>
+      <c r="A20" s="140" t="s">
+        <v>209</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>103</v>
@@ -5883,8 +5829,8 @@
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>214</v>
+      <c r="A21" s="140" t="s">
+        <v>210</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>107</v>
@@ -5895,8 +5841,8 @@
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>215</v>
+      <c r="A22" s="140" t="s">
+        <v>211</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>109</v>
@@ -5907,8 +5853,8 @@
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>216</v>
+      <c r="A23" s="140" t="s">
+        <v>212</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>111</v>
@@ -5919,8 +5865,8 @@
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>217</v>
+      <c r="A24" s="140" t="s">
+        <v>213</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>113</v>
@@ -5931,8 +5877,8 @@
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>218</v>
+      <c r="A25" s="140" t="s">
+        <v>214</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>115</v>
@@ -5943,8 +5889,8 @@
       <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>219</v>
+      <c r="A26" s="140" t="s">
+        <v>215</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>119</v>
@@ -5955,8 +5901,8 @@
       <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>220</v>
+      <c r="A27" s="140" t="s">
+        <v>216</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>121</v>
@@ -5967,8 +5913,8 @@
       <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>221</v>
+      <c r="A28" s="140" t="s">
+        <v>217</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>123</v>
@@ -5979,8 +5925,8 @@
       <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>222</v>
+      <c r="A29" s="140" t="s">
+        <v>218</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>125</v>
@@ -5991,8 +5937,8 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>223</v>
+      <c r="A30" s="140" t="s">
+        <v>219</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>127</v>
@@ -6003,8 +5949,8 @@
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>285</v>
+      <c r="A31" s="140" t="s">
+        <v>275</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>129</v>
@@ -6016,10 +5962,10 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
-      <c r="B32" s="76" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="77">
+      <c r="B32" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="74">
         <f>SUM(C18:C31)</f>
         <v>0</v>
       </c>
@@ -6050,10 +5996,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:L54"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6061,1028 +6007,913 @@
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="58.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" style="59"/>
-    <col min="9" max="9" width="2" style="59" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="59" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="59" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="59" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" style="56"/>
+    <col min="9" max="9" width="2" style="56" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="56" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="56" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="56" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="132" t="str">
+      <c r="B2" s="127" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="132" t="str">
+      <c r="B3" s="127" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="133">
+      <c r="B4" s="128">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="128">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
+      <c r="A6" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="s">
-        <v>167</v>
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+    </row>
+    <row r="9" spans="1:12" s="86" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79" t="s">
+        <v>163</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="137"/>
+      <c r="B10" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="80">
+        <v>0</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="137"/>
+      <c r="B11" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="80">
+        <v>0</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="137"/>
+      <c r="B12" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="80">
+        <v>0</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="135">
+        <v>43</v>
+      </c>
+      <c r="B13" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="130" t="s">
+      <c r="C13" s="84">
+        <f>SUM(C10:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="78"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="83">
-        <v>0</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-      <c r="B11" s="30" t="s">
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="136"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="92">
+        <v>0</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="136"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="92">
+        <v>0</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="136"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="92">
+        <v>0</v>
+      </c>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="138">
+        <v>48</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="83">
-        <v>0</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="30" t="s">
+      <c r="C19" s="84">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="136"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+    </row>
+    <row r="21" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="134"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="83">
+        <v>0</v>
+      </c>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="134"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="83">
+        <v>0</v>
+      </c>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="134"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="83">
+        <v>0</v>
+      </c>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="138">
+        <v>44</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="83">
-        <v>0</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="87">
-        <f>SUM(C10:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:12" s="90" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="83">
-        <v>0</v>
-      </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="83">
-        <v>0</v>
-      </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-    </row>
-    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="83">
-        <v>0</v>
-      </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-    </row>
-    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="89">
-        <v>7.2</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="87">
-        <f>SUM(C16:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-    </row>
-    <row r="21" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="96">
-        <v>0</v>
-      </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="96">
-        <v>0</v>
-      </c>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="96">
-        <v>0</v>
-      </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-    </row>
-    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="81">
-        <v>7.21</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="87">
+      <c r="C25" s="84">
         <f>SUM(C22:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
     </row>
     <row r="27" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
-        <v>167</v>
+      <c r="A27" s="79" t="s">
+        <v>163</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="130" t="s">
+      <c r="C27" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="86">
-        <v>0</v>
-      </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
+      <c r="C28" s="83">
+        <v>0</v>
+      </c>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="86">
-        <v>0</v>
-      </c>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
+      <c r="C29" s="83">
+        <v>0</v>
+      </c>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="86">
-        <v>0</v>
-      </c>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
+      <c r="C30" s="83">
+        <v>0</v>
+      </c>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="81">
-        <v>7.18</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="87">
+      <c r="A31" s="138">
+        <v>45</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="84">
         <f>SUM(C28:C30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-    </row>
-    <row r="33" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="A32" s="134"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="134"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="83">
+        <v>0</v>
+      </c>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="134"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="83">
+        <v>0</v>
+      </c>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="134"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="83">
+        <v>0</v>
+      </c>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+    </row>
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="138">
+        <v>46</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="84">
+        <f>SUM(C34:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="134"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="130" t="s">
+      <c r="C39" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="86">
-        <v>0</v>
-      </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="129"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="86">
-        <v>0</v>
-      </c>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="86">
-        <v>0</v>
-      </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
-    </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="87">
-        <f>SUM(C34:C36)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="130" t="s">
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="126"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="134"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="83">
+        <v>0</v>
+      </c>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="134"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="83">
+        <v>0</v>
+      </c>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="134"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="83">
+        <v>0</v>
+      </c>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="138">
+        <v>47</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="84">
+        <f>SUM(C40:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="134"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="86">
-        <v>0</v>
-      </c>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="81"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="86">
-        <v>0</v>
-      </c>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="81"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="86">
-        <v>0</v>
-      </c>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="129"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="129"/>
-    </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="87">
-        <f>SUM(C40:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="81"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="130"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="126"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="81"/>
+      <c r="A46" s="134"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="86">
-        <v>0</v>
-      </c>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="129"/>
+      <c r="C46" s="83">
+        <v>0</v>
+      </c>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="81"/>
+      <c r="A47" s="134"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="86">
-        <v>0</v>
-      </c>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="129"/>
+      <c r="C47" s="83">
+        <v>0</v>
+      </c>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="81"/>
+      <c r="A48" s="134"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="86">
-        <v>0</v>
-      </c>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="129"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="C49" s="87">
+      <c r="C48" s="83">
+        <v>0</v>
+      </c>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+    </row>
+    <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="139">
+        <v>48</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="84">
         <f>SUM(C46:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="81"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-    </row>
-    <row r="51" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="130"/>
-      <c r="L51" s="130"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="81"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="86">
-        <v>0</v>
-      </c>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="81"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="86">
-        <v>0</v>
-      </c>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="81"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="86">
-        <v>0</v>
-      </c>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="129"/>
-    </row>
-    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="B55" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="C55" s="87">
-        <f>SUM(C52:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="131"/>
-      <c r="K55" s="131"/>
-      <c r="L55" s="131"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="D22:L22"/>
+  <mergeCells count="35">
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D46:L46"/>
+    <mergeCell ref="D47:L47"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="D40:L40"/>
     <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D22:L22"/>
     <mergeCell ref="D23:L23"/>
     <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D33:L33"/>
     <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D15:L15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="A6:L8"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
     <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D29:L29"/>
     <mergeCell ref="D30:L30"/>
     <mergeCell ref="D34:L34"/>
     <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="D52:L52"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D51:L51"/>
-    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>

--- a/noprofit/en/11255/inpag-template.xlsx
+++ b/noprofit/en/11255/inpag-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\noprofit\en\11255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA30A08-D3BB-461A-8F2F-997CC750366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CE32C-3852-46A9-9168-4BB40A256DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" firstSheet="1" activeTab="4" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="7" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1354,9 +1354,42 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1369,15 +1402,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1399,86 +1423,56 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1861,7 +1855,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1874,327 +1868,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="133">
+      <c r="B8" s="105">
         <v>45292</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B9" s="105">
         <v>45657</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="131"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="131"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="131"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="131"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="131"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="131"/>
-      <c r="B18" s="133" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="131"/>
-      <c r="B19" s="133" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
-      <c r="B20" s="133" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="131"/>
-      <c r="B23" s="133" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="131"/>
-      <c r="B24" s="133" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="131"/>
-      <c r="B25" s="133" t="s">
+      <c r="A25" s="100"/>
+      <c r="B25" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="131"/>
-      <c r="B26" s="133" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="131"/>
-      <c r="B27" s="133" t="s">
+      <c r="A27" s="100"/>
+      <c r="B27" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="131"/>
-      <c r="B28" s="133" t="s">
+      <c r="A28" s="100"/>
+      <c r="B28" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B10:G16"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
@@ -2211,12 +2211,6 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B10:G16"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -2250,84 +2244,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
@@ -2350,12 +2344,12 @@
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
@@ -2449,12 +2443,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -2582,12 +2576,12 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
     </row>
     <row r="27" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -2698,12 +2692,12 @@
     </row>
     <row r="34" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
     </row>
     <row r="35" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
@@ -2780,12 +2774,12 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
     </row>
     <row r="41" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
@@ -2908,10 +2902,10 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="103"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="63">
         <f>SUM(D41:D47)</f>
         <v>0</v>
@@ -2923,10 +2917,10 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="103"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="63">
         <f>SUM(D32,D38,D48)</f>
         <v>0</v>
@@ -2954,11 +2948,11 @@
       <c r="A52" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="102" t="str">
+      <c r="B52" s="113" t="str">
         <f>IF((D15+D23+D32=D38+D48),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C52" s="102"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="54">
         <f>D49-D23</f>
         <v>0</v>
@@ -2968,12 +2962,12 @@
       <c r="A53" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="101" t="str">
+      <c r="B53" s="112" t="str">
         <f>IF((E15+E23+E32=E38+E48),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
       <c r="E53" s="54">
         <f>E49-E23</f>
         <v>0</v>
@@ -2987,11 +2981,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B52:C52"/>
@@ -3002,6 +2991,11 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B52">
@@ -3060,13 +3054,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -3074,72 +3068,72 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="116" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="116" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="109">
+      <c r="B4" s="117">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="117">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="111" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
@@ -3625,7 +3619,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3639,13 +3633,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3654,72 +3648,72 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="111" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
@@ -3742,10 +3736,10 @@
       <c r="A10" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="14">
         <v>0</v>
       </c>
@@ -3779,11 +3773,11 @@
       <c r="A13" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="14">
         <v>0</v>
       </c>
@@ -3792,22 +3786,22 @@
       <c r="A14" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="68">
         <f>SUM(E13:E14)</f>
         <v>0</v>
@@ -3841,11 +3835,11 @@
       <c r="A18" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="14">
         <v>0</v>
       </c>
@@ -3854,11 +3848,11 @@
       <c r="A19" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="14">
         <v>0</v>
       </c>
@@ -3867,11 +3861,11 @@
       <c r="A20" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="14">
         <v>0</v>
       </c>
@@ -3880,22 +3874,22 @@
       <c r="A21" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="68">
         <f>SUM(E18:E21)</f>
         <v>0</v>
@@ -3913,11 +3907,11 @@
       <c r="A24" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="63">
         <f>SUM(D10,E15,E22)</f>
         <v>0</v>
@@ -3925,11 +3919,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B24:D24"/>
@@ -3941,6 +3930,11 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -3957,7 +3951,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3972,94 +3966,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="115"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="75" t="s">
         <v>34</v>
       </c>
@@ -4072,30 +4066,30 @@
       <c r="A10" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="115"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="75" t="s">
         <v>34</v>
       </c>
@@ -4108,10 +4102,10 @@
       <c r="A13" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="113"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="94">
         <v>26</v>
       </c>
@@ -4124,10 +4118,10 @@
       <c r="A14" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="113"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="94">
         <v>32</v>
       </c>
@@ -4139,10 +4133,10 @@
       <c r="A15" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="94">
         <v>36</v>
       </c>
@@ -4154,10 +4148,10 @@
       <c r="A16" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="94">
         <v>33</v>
       </c>
@@ -4169,10 +4163,10 @@
       <c r="A17" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="94">
         <v>34</v>
       </c>
@@ -4184,10 +4178,10 @@
       <c r="A18" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="94">
         <v>35</v>
       </c>
@@ -4200,10 +4194,10 @@
       <c r="A19" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="113"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="94">
         <v>27</v>
       </c>
@@ -4216,10 +4210,10 @@
       <c r="A20" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="113"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="94">
         <v>28</v>
       </c>
@@ -4231,10 +4225,10 @@
       <c r="A21" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="113"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="94">
         <v>37</v>
       </c>
@@ -4247,10 +4241,10 @@
       <c r="A22" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="113"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="94">
         <v>38</v>
       </c>
@@ -4263,10 +4257,10 @@
       <c r="A23" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="113"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="94">
         <v>39</v>
       </c>
@@ -4279,10 +4273,10 @@
       <c r="A24" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="113"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="94">
         <v>40</v>
       </c>
@@ -4295,10 +4289,10 @@
       <c r="A25" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="114"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="94">
         <v>41</v>
       </c>
@@ -4311,10 +4305,10 @@
       <c r="A26" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="114"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="94">
         <v>42</v>
       </c>
@@ -4327,10 +4321,10 @@
       <c r="A27" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="113"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="94">
         <v>25</v>
       </c>
@@ -4341,11 +4335,11 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
       <c r="E28" s="63">
         <f>E10+SUM(E13:E27)</f>
         <v>0</v>
@@ -4362,10 +4356,10 @@
       <c r="A30" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="115"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="75" t="s">
         <v>34</v>
       </c>
@@ -4378,10 +4372,10 @@
       <c r="A31" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="114"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="94">
         <v>29</v>
       </c>
@@ -4393,10 +4387,10 @@
       <c r="A32" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="114"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="94">
         <v>30</v>
       </c>
@@ -4408,10 +4402,10 @@
       <c r="A33" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="114"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="94">
         <v>31</v>
       </c>
@@ -4421,11 +4415,11 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="63">
         <f>E10+E28+SUM(E31:E33)</f>
         <v>0</v>
@@ -4442,10 +4436,10 @@
       <c r="A36" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="115"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="75" t="s">
         <v>34</v>
       </c>
@@ -4459,10 +4453,10 @@
       <c r="A37" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="114"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="94">
         <v>24</v>
       </c>
@@ -4472,11 +4466,11 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="63">
         <f>E10+E28+E34+SUM(E37:E37)</f>
         <v>0</v>
@@ -4491,11 +4485,11 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="63">
         <f>SUM(E28,E34,E38)</f>
         <v>0</v>
@@ -4512,19 +4506,19 @@
       <c r="A42" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
       <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="103"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="97">
         <v>43</v>
       </c>
@@ -4535,11 +4529,11 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="70">
         <f>'Statement of financial position'!D22</f>
         <v>0</v>
@@ -4547,11 +4541,11 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="70">
         <f>'Statement of financial position'!E22</f>
         <v>0</v>
@@ -4559,11 +4553,11 @@
     </row>
     <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="70">
         <f>E45-E44</f>
         <v>0</v>
@@ -4594,10 +4588,10 @@
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="116"/>
+      <c r="C50" s="122"/>
       <c r="D50" s="94">
         <v>44</v>
       </c>
@@ -4605,10 +4599,10 @@
     </row>
     <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="116"/>
+      <c r="C51" s="122"/>
       <c r="D51" s="94">
         <v>45</v>
       </c>
@@ -4616,10 +4610,10 @@
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="116" t="s">
+      <c r="B52" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="116"/>
+      <c r="C52" s="122"/>
       <c r="D52" s="94">
         <v>46</v>
       </c>
@@ -4627,10 +4621,10 @@
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="116" t="s">
+      <c r="B53" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="116"/>
+      <c r="C53" s="122"/>
       <c r="D53" s="94">
         <v>47</v>
       </c>
@@ -4638,10 +4632,10 @@
     </row>
     <row r="54" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="116"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="94">
         <v>48</v>
       </c>
@@ -4663,11 +4657,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
@@ -4684,30 +4697,11 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
@@ -4738,205 +4732,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="120"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="120"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="120"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="118"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
@@ -5554,6 +5548,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
@@ -5569,18 +5575,6 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5615,77 +5609,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -5702,7 +5696,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="30" t="s">
         <v>201</v>
       </c>
       <c r="B10" s="38" t="s">
@@ -5714,7 +5708,7 @@
       <c r="D10" s="93"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="30" t="s">
         <v>202</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -5726,7 +5720,7 @@
       <c r="D11" s="93"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="30" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -5738,7 +5732,7 @@
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="30" t="s">
         <v>204</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -5750,7 +5744,7 @@
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="30" t="s">
         <v>206</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -5793,7 +5787,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="30" t="s">
         <v>207</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -5805,7 +5799,7 @@
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="30" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -5817,7 +5811,7 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="30" t="s">
         <v>209</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -5829,7 +5823,7 @@
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="30" t="s">
         <v>210</v>
       </c>
       <c r="B21" s="38" t="s">
@@ -5841,7 +5835,7 @@
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="30" t="s">
         <v>211</v>
       </c>
       <c r="B22" s="38" t="s">
@@ -5853,7 +5847,7 @@
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="140" t="s">
+      <c r="A23" s="30" t="s">
         <v>212</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -5865,7 +5859,7 @@
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="30" t="s">
         <v>213</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -5877,7 +5871,7 @@
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="30" t="s">
         <v>214</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -5889,7 +5883,7 @@
       <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="30" t="s">
         <v>215</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -5901,7 +5895,7 @@
       <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="30" t="s">
         <v>216</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -5913,7 +5907,7 @@
       <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="30" t="s">
         <v>217</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -5925,7 +5919,7 @@
       <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="30" t="s">
         <v>218</v>
       </c>
       <c r="B29" s="38" t="s">
@@ -5937,7 +5931,7 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="30" t="s">
         <v>219</v>
       </c>
       <c r="B30" s="38" t="s">
@@ -5949,7 +5943,7 @@
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="30" t="s">
         <v>275</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -6015,140 +6009,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="127" t="str">
+      <c r="B2" s="135" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127" t="str">
+      <c r="B3" s="135" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="128">
+      <c r="B4" s="136">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="128">
+      <c r="B5" s="136">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
     </row>
     <row r="9" spans="1:12" s="86" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
@@ -6160,74 +6154,74 @@
       <c r="C9" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="137"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="30" t="s">
         <v>222</v>
       </c>
       <c r="C10" s="80">
         <v>0</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="137"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="30" t="s">
         <v>223</v>
       </c>
       <c r="C11" s="80">
         <v>0</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="137"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="30" t="s">
         <v>224</v>
       </c>
       <c r="C12" s="80">
         <v>0</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="135">
+      <c r="A13" s="102">
         <v>43</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -6271,68 +6265,68 @@
       <c r="C15" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="26"/>
       <c r="C16" s="92">
         <v>0</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="136"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="26"/>
       <c r="C17" s="92">
         <v>0</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="26"/>
       <c r="C18" s="92">
         <v>0</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="138">
+      <c r="A19" s="78">
         <v>48</v>
       </c>
       <c r="B19" s="55" t="s">
@@ -6353,7 +6347,7 @@
       <c r="L19" s="78"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="46"/>
       <c r="C20" s="81"/>
       <c r="D20" s="78"/>
@@ -6376,68 +6370,68 @@
       <c r="C21" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="134"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="30"/>
       <c r="C22" s="83">
         <v>0</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="134"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="30"/>
       <c r="C23" s="83">
         <v>0</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="134"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83">
         <v>0</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="138">
+      <c r="A25" s="78">
         <v>44</v>
       </c>
       <c r="B25" s="55" t="s">
@@ -6458,7 +6452,7 @@
       <c r="L25" s="78"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="134"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="46"/>
       <c r="C26" s="81"/>
       <c r="D26" s="78"/>
@@ -6481,68 +6475,68 @@
       <c r="C27" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="134"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="30"/>
       <c r="C28" s="83">
         <v>0</v>
       </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="134"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="30"/>
       <c r="C29" s="83">
         <v>0</v>
       </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="134"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="30"/>
       <c r="C30" s="83">
         <v>0</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="138">
+      <c r="A31" s="78">
         <v>45</v>
       </c>
       <c r="B31" s="55" t="s">
@@ -6563,7 +6557,7 @@
       <c r="L31" s="78"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="134"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="46"/>
       <c r="C32" s="81"/>
       <c r="D32" s="78"/>
@@ -6586,68 +6580,68 @@
       <c r="C33" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D33" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="134"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="30"/>
       <c r="C34" s="83">
         <v>0</v>
       </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="134"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="30"/>
       <c r="C35" s="83">
         <v>0</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="134"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="30"/>
       <c r="C36" s="83">
         <v>0</v>
       </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
     </row>
     <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="138">
+      <c r="A37" s="78">
         <v>46</v>
       </c>
       <c r="B37" s="55" t="s">
@@ -6668,7 +6662,7 @@
       <c r="L37" s="78"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="134"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="46"/>
       <c r="C38" s="81"/>
       <c r="D38" s="78"/>
@@ -6691,68 +6685,68 @@
       <c r="C39" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="134"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="30"/>
       <c r="C40" s="83">
         <v>0</v>
       </c>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="134"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="30"/>
       <c r="C41" s="83">
         <v>0</v>
       </c>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="134"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="30"/>
       <c r="C42" s="83">
         <v>0</v>
       </c>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="138">
+      <c r="A43" s="78">
         <v>47</v>
       </c>
       <c r="B43" s="55" t="s">
@@ -6773,7 +6767,7 @@
       <c r="L43" s="78"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="134"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="46"/>
       <c r="C44" s="81"/>
       <c r="D44" s="78"/>
@@ -6796,68 +6790,68 @@
       <c r="C45" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="126" t="s">
+      <c r="D45" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="134"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="30"/>
       <c r="C46" s="83">
         <v>0</v>
       </c>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="134"/>
+      <c r="A47" s="101"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83">
         <v>0</v>
       </c>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="134"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="30"/>
       <c r="C48" s="83">
         <v>0</v>
       </c>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="125"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
     </row>
     <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="139">
+      <c r="A49" s="99">
         <v>48</v>
       </c>
       <c r="B49" s="55" t="s">
@@ -6867,27 +6861,28 @@
         <f>SUM(C46:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="A6:L8"/>
     <mergeCell ref="D49:L49"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D11:L11"/>
@@ -6901,19 +6896,18 @@
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="D27:L27"/>
     <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="A6:L8"/>
     <mergeCell ref="D16:L16"/>
     <mergeCell ref="D30:L30"/>
     <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D46:L46"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D39:L39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>

--- a/noprofit/en/11255/inpag-template.xlsx
+++ b/noprofit/en/11255/inpag-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\noprofit\en\11255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CE32C-3852-46A9-9168-4BB40A256DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA2347-B537-41CE-9C14-1687A0C969D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" firstSheet="1" activeTab="4" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Notes of cash flow statement" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Cash flow statement - indirect'!$A$1:$E$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Cash flow statement - indirect'!$A$1:$E$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'General information'!$A$1:$G$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Notes of cash flow statement'!$A$1:$L$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Notes of financial statement'!$A$1:$D$82</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="297">
   <si>
     <t>Company name and legal form</t>
   </si>
@@ -504,12 +504,6 @@
     <t>Net increase (decrease) in cash and cash equivalents before effect of exchange rate changes</t>
   </si>
   <si>
-    <t>EXRE</t>
-  </si>
-  <si>
-    <t>[+] Effect of exchange rate changes on cash and cash equivalents</t>
-  </si>
-  <si>
     <t>Net increase (decrease) in cash and cash equivalents</t>
   </si>
   <si>
@@ -780,9 +774,6 @@
     <t>IE</t>
   </si>
   <si>
-    <t>OI</t>
-  </si>
-  <si>
     <t>SSA</t>
   </si>
   <si>
@@ -792,42 +783,6 @@
     <t>UGLFED</t>
   </si>
   <si>
-    <t>DBP</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>GDNA</t>
-  </si>
-  <si>
-    <t>SSG</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>EXP2</t>
-  </si>
-  <si>
-    <t>EXP3</t>
-  </si>
-  <si>
-    <t>OE</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>GDGP</t>
-  </si>
-  <si>
     <t>Bank</t>
   </si>
   <si>
@@ -883,6 +838,111 @@
   </si>
   <si>
     <t>2.1</t>
+  </si>
+  <si>
+    <t>Capital grant</t>
+  </si>
+  <si>
+    <t>[-] Donations of property, plant and equipment (PPE)</t>
+  </si>
+  <si>
+    <t>DPPE</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>IDWIP</t>
+  </si>
+  <si>
+    <t>IDOCA</t>
+  </si>
+  <si>
+    <t>IDOCL</t>
+  </si>
+  <si>
+    <t>IDOC</t>
+  </si>
+  <si>
+    <t>IDA</t>
+  </si>
+  <si>
+    <t>Increase/decrease in inventories</t>
+  </si>
+  <si>
+    <t>Increase/decrease in WIP</t>
+  </si>
+  <si>
+    <t>Increase/decrease in other current assets</t>
+  </si>
+  <si>
+    <t>Increase/decrease in other current liabilities</t>
+  </si>
+  <si>
+    <t>Increase/decrease in operational creditors</t>
+  </si>
+  <si>
+    <t>Increase/decrease in accruals</t>
+  </si>
+  <si>
+    <t>Acquisition of PPE</t>
+  </si>
+  <si>
+    <t>Acquisition of intangible assets</t>
+  </si>
+  <si>
+    <t>Receipt of grants for PPE</t>
+  </si>
+  <si>
+    <t>Disposals</t>
+  </si>
+  <si>
+    <t>APPE</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>RGPPE</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>Repayment of borrowings</t>
+  </si>
+  <si>
+    <t>Member shares redeemed</t>
+  </si>
+  <si>
+    <t>Member shares issued</t>
+  </si>
+  <si>
+    <t>RBOR</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>Opening cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Movement if cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Foreign exchange differences</t>
+  </si>
+  <si>
+    <t>FED</t>
+  </si>
+  <si>
+    <t>MCCE</t>
+  </si>
+  <si>
+    <t>OCCE</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1140,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1432,9 +1492,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1462,6 +1519,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1470,9 +1530,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1855,7 +1912,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1869,7 +1926,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="106" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -2227,7 +2284,7 @@
   </sheetPr>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2302,7 +2359,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
@@ -2469,10 +2526,10 @@
     </row>
     <row r="19" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C19" s="94">
         <v>6</v>
@@ -3036,8 +3093,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3114,7 +3171,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
@@ -3562,7 +3619,7 @@
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="89" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C35" s="89"/>
       <c r="D35" s="90">
@@ -3619,7 +3676,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3694,7 +3751,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="111" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
@@ -3774,7 +3831,7 @@
         <v>135</v>
       </c>
       <c r="B13" s="120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" s="120"/>
       <c r="D13" s="120"/>
@@ -3833,7 +3890,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18" s="121" t="s">
         <v>54</v>
@@ -3846,7 +3903,7 @@
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B19" s="121" t="s">
         <v>56</v>
@@ -3859,7 +3916,7 @@
     </row>
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B20" s="121" t="s">
         <v>58</v>
@@ -3872,7 +3929,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21" s="120" t="s">
         <v>61</v>
@@ -3949,9 +4006,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4025,7 +4082,7 @@
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
@@ -4051,7 +4108,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="124"/>
       <c r="D9" s="75" t="s">
@@ -4067,7 +4124,7 @@
         <v>143</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="114"/>
@@ -4100,30 +4157,29 @@
     </row>
     <row r="13" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B13" s="121" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C13" s="121"/>
       <c r="D13" s="94">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E13" s="22">
         <v>0</v>
       </c>
-      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B14" s="121" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C14" s="121"/>
       <c r="D14" s="94">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
@@ -4131,14 +4187,14 @@
     </row>
     <row r="15" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B15" s="121" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="C15" s="121"/>
       <c r="D15" s="94">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E15" s="22">
         <v>0</v>
@@ -4146,44 +4202,46 @@
     </row>
     <row r="16" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C16" s="121"/>
       <c r="D16" s="94">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E16" s="22">
         <v>0</v>
       </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>241</v>
       </c>
       <c r="B17" s="121" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C17" s="121"/>
       <c r="D17" s="94">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="22">
         <v>0</v>
       </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B18" s="121" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="C18" s="121"/>
       <c r="D18" s="94">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E18" s="22">
         <v>0</v>
@@ -4192,14 +4250,14 @@
     </row>
     <row r="19" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="C19" s="121"/>
       <c r="D19" s="94">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E19" s="22">
         <v>0</v>
@@ -4208,257 +4266,255 @@
     </row>
     <row r="20" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B20" s="121" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="C20" s="121"/>
       <c r="D20" s="94">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E20" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="121" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="121"/>
+        <v>267</v>
+      </c>
+      <c r="B21" s="123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="123"/>
       <c r="D21" s="94">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E21" s="22">
         <v>0</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="121"/>
+        <v>268</v>
+      </c>
+      <c r="B22" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="123"/>
       <c r="D22" s="94">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E22" s="22">
         <v>0</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="B23" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="121"/>
+        <v>269</v>
+      </c>
+      <c r="B23" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="123"/>
       <c r="D23" s="94">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E23" s="22">
         <v>0</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="121" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="121"/>
+        <v>270</v>
+      </c>
+      <c r="B24" s="123" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="123"/>
       <c r="D24" s="94">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E24" s="22">
         <v>0</v>
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="94">
-        <v>41</v>
-      </c>
-      <c r="E25" s="22">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="B26" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="123"/>
-      <c r="D26" s="94">
-        <v>42</v>
-      </c>
-      <c r="E26" s="22">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4"/>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="63">
+        <f>E10+SUM(E13:E24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="94">
-        <v>25</v>
-      </c>
-      <c r="E27" s="22">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="114" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="63">
-        <f>E10+SUM(E13:E27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A27" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="124" t="s">
+      <c r="B27" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="75" t="s">
+      <c r="C27" s="124"/>
+      <c r="D27" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E27" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
     </row>
+    <row r="28" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="123"/>
+      <c r="D28" s="94">
+        <v>51</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="123" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="123"/>
+      <c r="D29" s="94">
+        <v>52</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="123" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="123"/>
+      <c r="D30" s="94">
+        <v>53</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+    </row>
     <row r="31" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="B31" s="123" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="C31" s="123"/>
       <c r="D31" s="94">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E31" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="94">
-        <v>30</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="94">
-        <v>31</v>
-      </c>
-      <c r="E33" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="114" t="s">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="63">
-        <f>E10+E28+SUM(E31:E33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="69"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="63">
+        <f>E10+E25+SUM(E28:E31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="69"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="124" t="s">
+      <c r="B34" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="124"/>
-      <c r="D36" s="75" t="s">
+      <c r="C34" s="124"/>
+      <c r="D34" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="75">
+      <c r="E34" s="75">
         <f>$B$5</f>
         <v>45657</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="123"/>
+      <c r="D35" s="94">
+        <v>55</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="123"/>
+      <c r="D36" s="94">
+        <v>56</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="B37" s="123" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="C37" s="123"/>
       <c r="D37" s="94">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E37" s="22">
         <v>0</v>
@@ -4472,7 +4528,7 @@
       <c r="C38" s="114"/>
       <c r="D38" s="114"/>
       <c r="E38" s="63">
-        <f>E10+E28+E34+SUM(E37:E37)</f>
+        <f>E10+E25+E32+SUM(E35:E35)</f>
         <v>0</v>
       </c>
     </row>
@@ -4491,217 +4547,247 @@
       <c r="C40" s="114"/>
       <c r="D40" s="114"/>
       <c r="E40" s="63">
-        <f>SUM(E28,E34,E38)</f>
+        <f>SUM(E25,E32,E38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="69"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="63"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="22"/>
+        <v>296</v>
+      </c>
+      <c r="B42" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="122"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="97">
-        <v>43</v>
-      </c>
-      <c r="E43" s="70">
-        <f>E40+E42</f>
+      <c r="A43" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="122"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="70">
-        <f>'Statement of financial position'!D22</f>
+      <c r="A44" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" s="122"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="114" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
+      <c r="D45" s="97">
+        <v>58</v>
+      </c>
       <c r="E45" s="70">
-        <f>'Statement of financial position'!E22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <f>E40+E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="114" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="114"/>
       <c r="E46" s="70">
-        <f>E45-E44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+        <f>'Statement of financial position'!D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="70">
+        <f>'Statement of financial position'!E22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="70">
+        <f>E47-E46</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
-      <c r="B49" s="58" t="s">
-        <v>156</v>
-      </c>
+      <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="94">
-        <v>44</v>
-      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="94">
-        <v>45</v>
-      </c>
+      <c r="B51" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="122" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C52" s="122"/>
       <c r="D52" s="94">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="122" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C53" s="122"/>
       <c r="D53" s="94">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E53" s="31"/>
     </row>
-    <row r="54" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="122" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C54" s="122"/>
       <c r="D54" s="94">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E54" s="31"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+    <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
+      <c r="B55" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="122"/>
+      <c r="D55" s="94">
+        <v>62</v>
+      </c>
+      <c r="E55" s="31"/>
+    </row>
+    <row r="56" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
+      <c r="B56" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="122"/>
+      <c r="D56" s="94">
+        <v>63</v>
+      </c>
+      <c r="E56" s="31"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="47">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
@@ -4732,12 +4818,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,142 +4891,142 @@
       <c r="D8" s="111"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
+      <c r="A9" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>34</v>
@@ -4970,10 +5056,10 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="22">
         <v>0</v>
@@ -4985,7 +5071,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34" s="22">
         <v>0</v>
@@ -4997,7 +5083,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="23">
         <v>0</v>
@@ -5009,7 +5095,7 @@
         <v>2.4</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="22">
         <v>0</v>
@@ -5021,7 +5107,7 @@
         <v>2.5</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="22">
         <v>0</v>
@@ -5033,7 +5119,7 @@
         <v>2.6</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" s="22">
         <v>0</v>
@@ -5045,7 +5131,7 @@
         <v>2.7</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C39" s="22">
         <v>0</v>
@@ -5057,7 +5143,7 @@
         <v>2.8</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40" s="22">
         <v>0</v>
@@ -5069,7 +5155,7 @@
         <v>2.9</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C41" s="22">
         <v>0</v>
@@ -5078,10 +5164,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C42" s="22">
         <v>0</v>
@@ -5090,10 +5176,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C43" s="22">
         <v>0</v>
@@ -5102,10 +5188,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C44" s="22">
         <v>0</v>
@@ -5114,10 +5200,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C45" s="22">
         <v>0</v>
@@ -5126,10 +5212,10 @@
     </row>
     <row r="46" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C46" s="22">
         <v>0</v>
@@ -5138,10 +5224,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" s="22">
         <v>0</v>
@@ -5151,7 +5237,7 @@
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" s="63">
         <f>SUM(C33:C47)</f>
@@ -5164,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C49" s="23">
         <v>0</v>
@@ -5202,13 +5288,13 @@
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>34</v>
@@ -5228,10 +5314,10 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C55" s="23">
         <v>0</v>
@@ -5240,7 +5326,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B56" s="45" t="s">
         <v>47</v>
@@ -5252,7 +5338,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>48</v>
@@ -5281,13 +5367,13 @@
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>34</v>
@@ -5295,7 +5381,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B61" s="38" t="s">
         <v>54</v>
@@ -5307,7 +5393,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>56</v>
@@ -5319,7 +5405,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B63" s="38" t="s">
         <v>58</v>
@@ -5331,7 +5417,7 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B64" s="38" t="s">
         <v>59</v>
@@ -5343,7 +5429,7 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B65" s="38" t="s">
         <v>61</v>
@@ -5356,7 +5442,7 @@
     <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C66" s="72">
         <f>SUM(C61:C65)</f>
@@ -5372,13 +5458,13 @@
     </row>
     <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>34</v>
@@ -5386,7 +5472,7 @@
     </row>
     <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B69" s="38" t="s">
         <v>64</v>
@@ -5398,7 +5484,7 @@
     </row>
     <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B70" s="38" t="s">
         <v>66</v>
@@ -5410,7 +5496,7 @@
     </row>
     <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>68</v>
@@ -5439,13 +5525,13 @@
     </row>
     <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>34</v>
@@ -5453,7 +5539,7 @@
     </row>
     <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" s="38" t="s">
         <v>72</v>
@@ -5465,7 +5551,7 @@
     </row>
     <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B76" s="38" t="s">
         <v>73</v>
@@ -5477,7 +5563,7 @@
     </row>
     <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>75</v>
@@ -5489,7 +5575,7 @@
     </row>
     <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>77</v>
@@ -5501,7 +5587,7 @@
     </row>
     <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B79" s="38" t="s">
         <v>79</v>
@@ -5513,7 +5599,7 @@
     </row>
     <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B80" s="38" t="s">
         <v>81</v>
@@ -5525,7 +5611,7 @@
     </row>
     <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B81" s="38" t="s">
         <v>83</v>
@@ -5609,12 +5695,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -5683,13 +5769,13 @@
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>163</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>165</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>34</v>
@@ -5697,7 +5783,7 @@
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>89</v>
@@ -5709,7 +5795,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>91</v>
@@ -5721,7 +5807,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>93</v>
@@ -5733,7 +5819,7 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>95</v>
@@ -5745,7 +5831,7 @@
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>97</v>
@@ -5758,7 +5844,7 @@
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="63">
         <f>SUM(C10:C14)</f>
@@ -5774,13 +5860,13 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>34</v>
@@ -5788,7 +5874,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>99</v>
@@ -5800,7 +5886,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>101</v>
@@ -5812,7 +5898,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>103</v>
@@ -5824,7 +5910,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>107</v>
@@ -5836,7 +5922,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>109</v>
@@ -5848,7 +5934,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>111</v>
@@ -5860,7 +5946,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>113</v>
@@ -5872,7 +5958,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>115</v>
@@ -5884,7 +5970,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>119</v>
@@ -5896,7 +5982,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>121</v>
@@ -5908,7 +5994,7 @@
     </row>
     <row r="28" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>123</v>
@@ -5920,7 +6006,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>125</v>
@@ -5932,7 +6018,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>127</v>
@@ -5944,7 +6030,7 @@
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>129</v>
@@ -5957,7 +6043,7 @@
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C32" s="74">
         <f>SUM(C18:C31)</f>
@@ -6009,20 +6095,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6102,7 +6188,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="137" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B6" s="137"/>
       <c r="C6" s="137"/>
@@ -6146,86 +6232,86 @@
     </row>
     <row r="9" spans="1:12" s="86" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="80">
         <v>0</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="104"/>
       <c r="B11" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C11" s="80">
         <v>0</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="104"/>
       <c r="B12" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" s="80">
         <v>0</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="102">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C13" s="84">
         <f>SUM(C10:C12)</f>
@@ -6257,25 +6343,25 @@
     </row>
     <row r="15" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="103"/>
@@ -6283,15 +6369,15 @@
       <c r="C16" s="92">
         <v>0</v>
       </c>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="103"/>
@@ -6299,15 +6385,15 @@
       <c r="C17" s="92">
         <v>0</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="103"/>
@@ -6315,22 +6401,22 @@
       <c r="C18" s="92">
         <v>0</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" s="84">
         <f>SUM(C16:C18)</f>
@@ -6362,25 +6448,25 @@
     </row>
     <row r="21" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="101"/>
@@ -6388,15 +6474,15 @@
       <c r="C22" s="83">
         <v>0</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="101"/>
@@ -6404,15 +6490,15 @@
       <c r="C23" s="83">
         <v>0</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="101"/>
@@ -6420,22 +6506,22 @@
       <c r="C24" s="83">
         <v>0</v>
       </c>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="78">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C25" s="84">
         <f>SUM(C22:C24)</f>
@@ -6467,25 +6553,25 @@
     </row>
     <row r="27" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="133" t="s">
+      <c r="D27" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="101"/>
@@ -6493,15 +6579,15 @@
       <c r="C28" s="83">
         <v>0</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="101"/>
@@ -6509,15 +6595,15 @@
       <c r="C29" s="83">
         <v>0</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="101"/>
@@ -6525,22 +6611,22 @@
       <c r="C30" s="83">
         <v>0</v>
       </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="78">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C31" s="84">
         <f>SUM(C28:C30)</f>
@@ -6572,25 +6658,25 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="133" t="s">
+      <c r="D33" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="101"/>
@@ -6598,15 +6684,15 @@
       <c r="C34" s="83">
         <v>0</v>
       </c>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="131"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="101"/>
@@ -6614,15 +6700,15 @@
       <c r="C35" s="83">
         <v>0</v>
       </c>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="101"/>
@@ -6630,22 +6716,22 @@
       <c r="C36" s="83">
         <v>0</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
     </row>
     <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="78">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C37" s="84">
         <f>SUM(C34:C36)</f>
@@ -6677,25 +6763,25 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="133" t="s">
+      <c r="D39" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="101"/>
@@ -6703,15 +6789,15 @@
       <c r="C40" s="83">
         <v>0</v>
       </c>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="101"/>
@@ -6719,15 +6805,15 @@
       <c r="C41" s="83">
         <v>0</v>
       </c>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="101"/>
@@ -6735,22 +6821,22 @@
       <c r="C42" s="83">
         <v>0</v>
       </c>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="78">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C43" s="84">
         <f>SUM(C40:C42)</f>
@@ -6782,25 +6868,25 @@
     </row>
     <row r="45" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="133" t="s">
+      <c r="D45" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="101"/>
@@ -6808,15 +6894,15 @@
       <c r="C46" s="83">
         <v>0</v>
       </c>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="131"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="101"/>
@@ -6824,15 +6910,15 @@
       <c r="C47" s="83">
         <v>0</v>
       </c>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="101"/>
@@ -6840,36 +6926,36 @@
       <c r="C48" s="83">
         <v>0</v>
       </c>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
     </row>
     <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="99">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C49" s="84">
         <f>SUM(C46:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="134"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/noprofit/en/11255/inpag-template.xlsx
+++ b/noprofit/en/11255/inpag-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\noprofit\en\11255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA2347-B537-41CE-9C14-1687A0C969D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E07B5-0B7F-4605-9276-000F67B53A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" firstSheet="1" activeTab="4" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="7" r:id="rId1"/>
@@ -843,9 +843,6 @@
     <t>Capital grant</t>
   </si>
   <si>
-    <t>[-] Donations of property, plant and equipment (PPE)</t>
-  </si>
-  <si>
     <t>DPPE</t>
   </si>
   <si>
@@ -943,6 +940,9 @@
   </si>
   <si>
     <t>OCCE</t>
+  </si>
+  <si>
+    <t>Donations of property, plant and equipment (PPE)</t>
   </si>
 </sst>
 </file>
@@ -1441,6 +1441,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1450,18 +1462,6 @@
     <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1483,53 +1483,53 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1912,7 +1912,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2246,12 +2246,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:G16"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
@@ -2268,6 +2262,12 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G16"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -2284,7 +2284,7 @@
   </sheetPr>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2301,84 +2301,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="112" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="112" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="114">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="114">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
@@ -2401,12 +2401,12 @@
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
@@ -2500,12 +2500,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -2633,12 +2633,12 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
     </row>
     <row r="27" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -2749,12 +2749,12 @@
     </row>
     <row r="34" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
     </row>
     <row r="35" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
@@ -2831,12 +2831,12 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
     </row>
     <row r="41" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
@@ -2959,10 +2959,10 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="114"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="63">
         <f>SUM(D41:D47)</f>
         <v>0</v>
@@ -2974,10 +2974,10 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="114"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="63">
         <f>SUM(D32,D38,D48)</f>
         <v>0</v>
@@ -3005,11 +3005,11 @@
       <c r="A52" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="113" t="str">
+      <c r="B52" s="110" t="str">
         <f>IF((D15+D23+D32=D38+D48),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C52" s="113"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="54">
         <f>D49-D23</f>
         <v>0</v>
@@ -3019,12 +3019,12 @@
       <c r="A53" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="112" t="str">
+      <c r="B53" s="109" t="str">
         <f>IF((E15+E23+E32=E38+E48),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
       <c r="E53" s="54">
         <f>E49-E23</f>
         <v>0</v>
@@ -3038,6 +3038,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B52:C52"/>
@@ -3048,11 +3053,6 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B52">
@@ -3170,27 +3170,27 @@
       <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
@@ -3690,13 +3690,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3705,72 +3705,72 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="112" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="112" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="114">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="114">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
@@ -3976,6 +3976,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B24:D24"/>
@@ -3987,11 +3992,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -4008,7 +4008,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4023,85 +4023,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="112" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="112" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="114">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="114">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="108" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
@@ -4123,21 +4123,21 @@
       <c r="A10" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
     </row>
     <row r="12" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
@@ -4187,10 +4187,10 @@
     </row>
     <row r="15" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" s="121" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C15" s="121"/>
       <c r="D15" s="94">
@@ -4234,7 +4234,7 @@
     </row>
     <row r="18" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" s="121" t="s">
         <v>262</v>
@@ -4253,7 +4253,7 @@
         <v>240</v>
       </c>
       <c r="B19" s="121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" s="121"/>
       <c r="D19" s="94">
@@ -4266,10 +4266,10 @@
     </row>
     <row r="20" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B20" s="121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" s="121"/>
       <c r="D20" s="94">
@@ -4282,12 +4282,12 @@
     </row>
     <row r="21" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="123"/>
+        <v>266</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="122"/>
       <c r="D21" s="94">
         <v>47</v>
       </c>
@@ -4298,12 +4298,12 @@
     </row>
     <row r="22" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="123" t="s">
-        <v>274</v>
-      </c>
-      <c r="C22" s="123"/>
+        <v>267</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="122"/>
       <c r="D22" s="94">
         <v>48</v>
       </c>
@@ -4314,12 +4314,12 @@
     </row>
     <row r="23" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23" s="123" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="123"/>
+        <v>268</v>
+      </c>
+      <c r="B23" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="122"/>
       <c r="D23" s="94">
         <v>49</v>
       </c>
@@ -4330,12 +4330,12 @@
     </row>
     <row r="24" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="B24" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="123"/>
+        <v>269</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="122"/>
       <c r="D24" s="94">
         <v>50</v>
       </c>
@@ -4346,11 +4346,11 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
       <c r="E25" s="63">
         <f>E10+SUM(E13:E24)</f>
         <v>0</v>
@@ -4381,12 +4381,12 @@
     </row>
     <row r="28" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="B28" s="123" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="123"/>
+        <v>280</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="122"/>
       <c r="D28" s="94">
         <v>51</v>
       </c>
@@ -4396,12 +4396,12 @@
     </row>
     <row r="29" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" s="123" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="123"/>
+        <v>281</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="122"/>
       <c r="D29" s="94">
         <v>52</v>
       </c>
@@ -4411,12 +4411,12 @@
     </row>
     <row r="30" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="123" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="123"/>
+        <v>282</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="122"/>
       <c r="D30" s="94">
         <v>53</v>
       </c>
@@ -4426,12 +4426,12 @@
     </row>
     <row r="31" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="123" t="s">
-        <v>280</v>
-      </c>
-      <c r="C31" s="123"/>
+        <v>283</v>
+      </c>
+      <c r="B31" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="122"/>
       <c r="D31" s="94">
         <v>54</v>
       </c>
@@ -4441,11 +4441,11 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="63">
         <f>E10+E25+SUM(E28:E31)</f>
         <v>0</v>
@@ -4477,12 +4477,12 @@
     </row>
     <row r="35" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="B35" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="C35" s="123"/>
+        <v>287</v>
+      </c>
+      <c r="B35" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" s="122"/>
       <c r="D35" s="94">
         <v>55</v>
       </c>
@@ -4492,12 +4492,12 @@
     </row>
     <row r="36" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="B36" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="C36" s="123"/>
+        <v>288</v>
+      </c>
+      <c r="B36" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C36" s="122"/>
       <c r="D36" s="94">
         <v>56</v>
       </c>
@@ -4507,12 +4507,12 @@
     </row>
     <row r="37" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="B37" s="123" t="s">
-        <v>287</v>
-      </c>
-      <c r="C37" s="123"/>
+        <v>289</v>
+      </c>
+      <c r="B37" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="122"/>
       <c r="D37" s="94">
         <v>57</v>
       </c>
@@ -4522,11 +4522,11 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
       <c r="E38" s="63">
         <f>E10+E25+E32+SUM(E35:E35)</f>
         <v>0</v>
@@ -4541,11 +4541,11 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="63">
         <f>SUM(E25,E32,E38)</f>
         <v>0</v>
@@ -4560,12 +4560,12 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="B42" s="122" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="122"/>
+        <v>295</v>
+      </c>
+      <c r="B42" s="123" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="123"/>
       <c r="D42" s="26"/>
       <c r="E42" s="22">
         <v>0</v>
@@ -4573,12 +4573,12 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="B43" s="122" t="s">
-        <v>292</v>
-      </c>
-      <c r="C43" s="122"/>
+        <v>294</v>
+      </c>
+      <c r="B43" s="123" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="123"/>
       <c r="D43" s="26"/>
       <c r="E43" s="22">
         <v>0</v>
@@ -4586,12 +4586,12 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="B44" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="122"/>
+      <c r="B44" s="123" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="123"/>
       <c r="D44" s="26"/>
       <c r="E44" s="22">
         <v>0</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="114"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="97">
         <v>58</v>
       </c>
@@ -4613,11 +4613,11 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
       <c r="E46" s="70">
         <f>'Statement of financial position'!D22</f>
         <v>0</v>
@@ -4625,11 +4625,11 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
       <c r="E47" s="70">
         <f>'Statement of financial position'!E22</f>
         <v>0</v>
@@ -4637,11 +4637,11 @@
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="70">
         <f>E47-E46</f>
         <v>0</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="122" t="s">
+      <c r="B52" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="122"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="94">
         <v>59</v>
       </c>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="122" t="s">
+      <c r="B53" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="122"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="94">
         <v>60</v>
       </c>
@@ -4694,10 +4694,10 @@
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="122"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="94">
         <v>61</v>
       </c>
@@ -4705,10 +4705,10 @@
     </row>
     <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
-      <c r="B55" s="122" t="s">
+      <c r="B55" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="122"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="94">
         <v>62</v>
       </c>
@@ -4716,10 +4716,10 @@
     </row>
     <row r="56" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
-      <c r="B56" s="122" t="s">
+      <c r="B56" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="122"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="94">
         <v>63</v>
       </c>
@@ -4741,24 +4741,20 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B32:D32"/>
@@ -4774,20 +4770,24 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
@@ -4804,7 +4804,7 @@
   </sheetPr>
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4818,85 +4818,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="112" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="112" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="114">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="114">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="126"/>
@@ -4917,34 +4917,34 @@
       <c r="D12" s="126"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="128"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="126"/>
@@ -5013,10 +5013,10 @@
       <c r="D28" s="126"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="129"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="75" t="s">
@@ -5634,18 +5634,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
@@ -5661,6 +5649,18 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5707,65 +5707,65 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="112" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="112" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="114">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="114">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -6114,121 +6114,121 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="135" t="str">
+      <c r="B2" s="134" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135" t="str">
+      <c r="B3" s="134" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="136">
+      <c r="B4" s="135">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="136">
+      <c r="B5" s="135">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
     </row>
     <row r="9" spans="1:12" s="86" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
@@ -6240,17 +6240,17 @@
       <c r="C9" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
@@ -6351,17 +6351,17 @@
       <c r="C15" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="132" t="s">
+      <c r="D15" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="103"/>
@@ -6369,15 +6369,15 @@
       <c r="C16" s="92">
         <v>0</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="103"/>
@@ -6385,15 +6385,15 @@
       <c r="C17" s="92">
         <v>0</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="103"/>
@@ -6401,15 +6401,15 @@
       <c r="C18" s="92">
         <v>0</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
@@ -6456,17 +6456,17 @@
       <c r="C21" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="132" t="s">
+      <c r="D21" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="101"/>
@@ -6561,17 +6561,17 @@
       <c r="C27" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="132" t="s">
+      <c r="D27" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="101"/>
@@ -6666,17 +6666,17 @@
       <c r="C33" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="132" t="s">
+      <c r="D33" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="101"/>
@@ -6771,17 +6771,17 @@
       <c r="C39" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="132" t="s">
+      <c r="D39" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="101"/>
@@ -6876,17 +6876,17 @@
       <c r="C45" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="132" t="s">
+      <c r="D45" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="101"/>
@@ -6947,28 +6947,27 @@
         <f>SUM(C46:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="133"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="A6:L8"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D46:L46"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="D39:L39"/>
     <mergeCell ref="D49:L49"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D11:L11"/>
@@ -6985,15 +6984,16 @@
     <mergeCell ref="D16:L16"/>
     <mergeCell ref="D30:L30"/>
     <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D46:L46"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="A6:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>

--- a/noprofit/en/11255/inpag-template.xlsx
+++ b/noprofit/en/11255/inpag-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\noprofit\en\11255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A02AFA8-C3DF-4BA9-B283-FD3095575342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC963B-0A3F-41F2-B0C0-4E6B10D440E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -1071,7 +1071,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1342,6 +1342,15 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1396,12 +1405,12 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1437,21 +1446,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1847,324 +1841,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>45292</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="101">
         <v>45657</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="96"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="96"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="96"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="96"/>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="96"/>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="96"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="96"/>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="96"/>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="96"/>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="96"/>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2194,7 +2188,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Arial,Normale"© www.banana.ch/it/it</oddFooter>
+    <oddFooter>&amp;C&amp;"Arial,Normale"© www.banana.ch</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2223,84 +2217,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
@@ -2323,12 +2317,12 @@
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
@@ -2422,12 +2416,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
@@ -2555,12 +2549,12 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
     </row>
     <row r="27" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
@@ -2688,12 +2682,12 @@
     </row>
     <row r="35" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
     </row>
     <row r="36" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
@@ -2770,12 +2764,12 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
     </row>
     <row r="42" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
@@ -2898,10 +2892,10 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="107"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="62">
         <f>SUM(D42:D48)</f>
         <v>0</v>
@@ -2913,10 +2907,10 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="107"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="62">
         <f>SUM(D33,D39,D49)</f>
         <v>0</v>
@@ -2944,11 +2938,11 @@
       <c r="A53" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="106" t="str">
+      <c r="B53" s="109" t="str">
         <f>IF((D15+D23+D33=D39+D49),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C53" s="106"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="53">
         <f>D50-D23</f>
         <v>0</v>
@@ -2958,12 +2952,12 @@
       <c r="A54" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="105" t="str">
+      <c r="B54" s="108" t="str">
         <f>IF((E15+E23+E33=E39+E49),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
       <c r="E54" s="53">
         <f>E50-E23</f>
         <v>0</v>
@@ -3020,7 +3014,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C© www.banana.ch/it/it</oddFooter>
+    <oddFooter>&amp;C© www.banana.ch</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3050,13 +3044,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
@@ -3064,72 +3058,72 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="112" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="str">
+      <c r="B3" s="112" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="113">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="113">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
@@ -3688,7 +3682,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C© www.banana.ch/it/it</oddFooter>
+    <oddFooter>&amp;C© www.banana.ch</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3714,13 +3708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3729,72 +3723,72 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
@@ -3817,10 +3811,10 @@
       <c r="A10" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="14">
         <v>0</v>
       </c>
@@ -3854,11 +3848,11 @@
       <c r="A13" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="14">
         <v>0</v>
       </c>
@@ -3867,22 +3861,22 @@
       <c r="A14" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="67">
         <f>SUM(E13:E14)</f>
         <v>0</v>
@@ -3916,11 +3910,11 @@
       <c r="A18" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="14">
         <v>0</v>
       </c>
@@ -3929,11 +3923,11 @@
       <c r="A19" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="14">
         <v>0</v>
       </c>
@@ -3942,11 +3936,11 @@
       <c r="A20" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="14">
         <v>0</v>
       </c>
@@ -3955,11 +3949,11 @@
       <c r="A21" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="117" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="14">
         <v>0</v>
       </c>
@@ -3968,22 +3962,22 @@
       <c r="A22" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="116" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="67">
         <f>SUM(E18:E22)</f>
         <v>0</v>
@@ -4001,11 +3995,11 @@
       <c r="A25" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="62">
         <f>SUM(D10,E15,E23)</f>
         <v>0</v>
@@ -4034,7 +4028,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C© www.banana.ch/it/it</oddFooter>
+    <oddFooter>&amp;C© www.banana.ch</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4061,94 +4055,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="74" t="s">
         <v>34</v>
       </c>
@@ -4161,30 +4155,30 @@
       <c r="A10" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="74" t="s">
         <v>34</v>
       </c>
@@ -4197,10 +4191,10 @@
       <c r="A13" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="114"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="90"/>
       <c r="E13" s="22">
         <v>0</v>
@@ -4210,10 +4204,10 @@
       <c r="A14" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="90"/>
       <c r="E14" s="22">
         <v>0</v>
@@ -4223,10 +4217,10 @@
       <c r="A15" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="114"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="90"/>
       <c r="E15" s="22">
         <v>0</v>
@@ -4236,10 +4230,10 @@
       <c r="A16" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="90"/>
       <c r="E16" s="22">
         <v>0</v>
@@ -4250,10 +4244,10 @@
       <c r="A17" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="117" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="114"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="90"/>
       <c r="E17" s="22">
         <v>0</v>
@@ -4264,10 +4258,10 @@
       <c r="A18" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="117" t="s">
         <v>265</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="90"/>
       <c r="E18" s="22">
         <v>0</v>
@@ -4278,10 +4272,10 @@
       <c r="A19" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="114"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="90"/>
       <c r="E19" s="22">
         <v>0</v>
@@ -4292,10 +4286,10 @@
       <c r="A20" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="117" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="114"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="90"/>
       <c r="E20" s="22">
         <v>0</v>
@@ -4306,10 +4300,10 @@
       <c r="A21" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="116"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="90"/>
       <c r="E21" s="22">
         <v>0</v>
@@ -4320,10 +4314,10 @@
       <c r="A22" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="116"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="90"/>
       <c r="E22" s="22">
         <v>0</v>
@@ -4334,10 +4328,10 @@
       <c r="A23" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="120" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="116"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="90"/>
       <c r="E23" s="22">
         <v>0</v>
@@ -4348,10 +4342,10 @@
       <c r="A24" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="120" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="116"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="90"/>
       <c r="E24" s="22">
         <v>0</v>
@@ -4360,11 +4354,11 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="62">
         <f>E10+SUM(E13:E24)</f>
         <v>0</v>
@@ -4381,10 +4375,10 @@
       <c r="A27" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="117"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="74" t="s">
         <v>34</v>
       </c>
@@ -4397,10 +4391,10 @@
       <c r="A28" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="120" t="s">
         <v>271</v>
       </c>
-      <c r="C28" s="116"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="90"/>
       <c r="E28" s="22">
         <v>0</v>
@@ -4410,10 +4404,10 @@
       <c r="A29" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="120" t="s">
         <v>272</v>
       </c>
-      <c r="C29" s="116"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="90"/>
       <c r="E29" s="22">
         <v>0</v>
@@ -4423,10 +4417,10 @@
       <c r="A30" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="116"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="90"/>
       <c r="E30" s="22">
         <v>0</v>
@@ -4436,10 +4430,10 @@
       <c r="A31" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="120" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="116"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="90"/>
       <c r="E31" s="22">
         <v>0</v>
@@ -4447,11 +4441,11 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="62">
         <f>E10+E25+SUM(E28:E31)</f>
         <v>0</v>
@@ -4468,10 +4462,10 @@
       <c r="A34" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="117"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="74" t="s">
         <v>34</v>
       </c>
@@ -4485,10 +4479,10 @@
       <c r="A35" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="C35" s="116"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="90"/>
       <c r="E35" s="22">
         <v>0</v>
@@ -4498,10 +4492,10 @@
       <c r="A36" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="120" t="s">
         <v>268</v>
       </c>
-      <c r="C36" s="116"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="90"/>
       <c r="E36" s="22">
         <v>0</v>
@@ -4511,10 +4505,10 @@
       <c r="A37" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="120" t="s">
         <v>269</v>
       </c>
-      <c r="C37" s="116"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="90"/>
       <c r="E37" s="22">
         <v>0</v>
@@ -4522,11 +4516,11 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="62">
         <f>E10+E25+E32+SUM(E35:E37)</f>
         <v>0</v>
@@ -4541,11 +4535,11 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="62">
         <f>SUM(E25,E32,E38)</f>
         <v>0</v>
@@ -4562,10 +4556,10 @@
       <c r="A42" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="115"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="26"/>
       <c r="E42" s="22">
         <v>0</v>
@@ -4575,10 +4569,10 @@
       <c r="A43" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="26"/>
       <c r="E43" s="22">
         <v>0</v>
@@ -4588,10 +4582,10 @@
       <c r="A44" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="115"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="26"/>
       <c r="E44" s="22">
         <v>0</v>
@@ -4599,10 +4593,10 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="107"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="93">
         <v>49</v>
       </c>
@@ -4613,11 +4607,11 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
       <c r="E46" s="69">
         <f>'Statement of financial position'!D22</f>
         <v>0</v>
@@ -4625,11 +4619,11 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
       <c r="E47" s="69">
         <f>'Statement of financial position'!E22</f>
         <v>0</v>
@@ -4637,11 +4631,11 @@
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
       <c r="E48" s="69">
         <f>E47-E46</f>
         <v>0</v>
@@ -4672,10 +4666,10 @@
     </row>
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="115" t="s">
+      <c r="B52" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="115"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="90">
         <v>50</v>
       </c>
@@ -4683,10 +4677,10 @@
     </row>
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="115" t="s">
+      <c r="B53" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="115"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="90">
         <v>51</v>
       </c>
@@ -4694,10 +4688,10 @@
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="115" t="s">
+      <c r="B54" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="115"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="90">
         <v>52</v>
       </c>
@@ -4705,10 +4699,10 @@
     </row>
     <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="115"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="90">
         <v>53</v>
       </c>
@@ -4716,10 +4710,10 @@
     </row>
     <row r="56" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
-      <c r="B56" s="115" t="s">
+      <c r="B56" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="115"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="90">
         <v>54</v>
       </c>
@@ -4790,9 +4784,9 @@
     <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C© www.banana.ch/it/it</oddFooter>
+    <oddFooter>&amp;C© www.banana.ch</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4818,205 +4812,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
@@ -5392,7 +5386,7 @@
       <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="130">
+      <c r="A62" s="30">
         <v>10</v>
       </c>
       <c r="B62" s="38" t="s">
@@ -5404,7 +5398,7 @@
       <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="130">
+      <c r="A63" s="30">
         <v>11</v>
       </c>
       <c r="B63" s="38" t="s">
@@ -5416,7 +5410,7 @@
       <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="130">
+      <c r="A64" s="30">
         <v>12</v>
       </c>
       <c r="B64" s="38" t="s">
@@ -5428,7 +5422,7 @@
       <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="130">
+      <c r="A65" s="30">
         <v>13</v>
       </c>
       <c r="B65" s="38" t="s">
@@ -5440,7 +5434,7 @@
       <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="130">
+      <c r="A66" s="30">
         <v>14</v>
       </c>
       <c r="B66" s="38" t="s">
@@ -5483,7 +5477,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="131">
+      <c r="A70" s="98">
         <v>15</v>
       </c>
       <c r="B70" s="38" t="s">
@@ -5495,7 +5489,7 @@
       <c r="D70" s="92"/>
     </row>
     <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="131">
+      <c r="A71" s="98">
         <v>16</v>
       </c>
       <c r="B71" s="38" t="s">
@@ -5507,7 +5501,7 @@
       <c r="D71" s="92"/>
     </row>
     <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="131">
+      <c r="A72" s="98">
         <v>17</v>
       </c>
       <c r="B72" s="38" t="s">
@@ -5550,7 +5544,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="131">
+      <c r="A76" s="98">
         <v>18</v>
       </c>
       <c r="B76" s="38" t="s">
@@ -5562,7 +5556,7 @@
       <c r="D76" s="92"/>
     </row>
     <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="131">
+      <c r="A77" s="98">
         <v>19</v>
       </c>
       <c r="B77" s="38" t="s">
@@ -5574,7 +5568,7 @@
       <c r="D77" s="92"/>
     </row>
     <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="131">
+      <c r="A78" s="98">
         <v>20</v>
       </c>
       <c r="B78" s="38" t="s">
@@ -5586,7 +5580,7 @@
       <c r="D78" s="92"/>
     </row>
     <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="131">
+      <c r="A79" s="98">
         <v>21</v>
       </c>
       <c r="B79" s="38" t="s">
@@ -5598,7 +5592,7 @@
       <c r="D79" s="92"/>
     </row>
     <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="131">
+      <c r="A80" s="98">
         <v>22</v>
       </c>
       <c r="B80" s="38" t="s">
@@ -5610,7 +5604,7 @@
       <c r="D80" s="92"/>
     </row>
     <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="131">
+      <c r="A81" s="98">
         <v>23</v>
       </c>
       <c r="B81" s="38" t="s">
@@ -5622,7 +5616,7 @@
       <c r="D81" s="92"/>
     </row>
     <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="131">
+      <c r="A82" s="98">
         <v>24</v>
       </c>
       <c r="B82" s="38" t="s">
@@ -5678,7 +5672,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C© www.banana.ch/it/it&amp;R&amp;P</oddFooter>
+    <oddFooter>&amp;C© www.banana.ch&amp;R&amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="A42:A47 A55:A57 A33 A61" numberStoredAsText="1"/>
@@ -5707,77 +5701,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -6054,8 +6048,8 @@
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="38"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
@@ -6064,7 +6058,7 @@
       <c r="B33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="132" t="s">
+      <c r="C33" s="99" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="21" t="s">
@@ -6148,11 +6142,11 @@
       <c r="B40" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="134">
+      <c r="C40" s="63">
         <f>SUM(C34:C39)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="133"/>
+      <c r="D40" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6166,7 +6160,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C© www.banana.ch/it/it&amp;R&amp;P</oddFooter>
+    <oddFooter>&amp;C© www.banana.ch&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6195,140 +6189,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="127" t="str">
+      <c r="B2" s="130" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127" t="str">
+      <c r="B3" s="130" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="128">
+      <c r="B4" s="131">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="128">
+      <c r="B5" s="131">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
@@ -6340,17 +6334,17 @@
       <c r="C9" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="97"/>
@@ -6358,15 +6352,15 @@
       <c r="C10" s="81">
         <v>0</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="97"/>
@@ -6374,15 +6368,15 @@
       <c r="C11" s="81">
         <v>0</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="97"/>
@@ -6390,15 +6384,15 @@
       <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="77">
@@ -6445,17 +6439,17 @@
       <c r="C15" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="97"/>
@@ -6463,15 +6457,15 @@
       <c r="C16" s="81">
         <v>0</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="97"/>
@@ -6479,15 +6473,15 @@
       <c r="C17" s="81">
         <v>0</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="97"/>
@@ -6495,15 +6489,15 @@
       <c r="C18" s="81">
         <v>0</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="77">
@@ -6550,17 +6544,17 @@
       <c r="C21" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="125" t="s">
+      <c r="D21" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="97"/>
@@ -6568,15 +6562,15 @@
       <c r="C22" s="81">
         <v>0</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="97"/>
@@ -6584,15 +6578,15 @@
       <c r="C23" s="81">
         <v>0</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="97"/>
@@ -6600,15 +6594,15 @@
       <c r="C24" s="81">
         <v>0</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="77">
@@ -6655,17 +6649,17 @@
       <c r="C27" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="97"/>
@@ -6673,15 +6667,15 @@
       <c r="C28" s="81">
         <v>0</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="97"/>
@@ -6689,15 +6683,15 @@
       <c r="C29" s="81">
         <v>0</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="97"/>
@@ -6705,15 +6699,15 @@
       <c r="C30" s="81">
         <v>0</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="77">
@@ -6760,17 +6754,17 @@
       <c r="C33" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="97"/>
@@ -6778,15 +6772,15 @@
       <c r="C34" s="81">
         <v>0</v>
       </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="97"/>
@@ -6794,15 +6788,15 @@
       <c r="C35" s="81">
         <v>0</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="97"/>
@@ -6810,15 +6804,15 @@
       <c r="C36" s="81">
         <v>0</v>
       </c>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="77">
@@ -6865,17 +6859,17 @@
       <c r="C39" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="125" t="s">
+      <c r="D39" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="97"/>
@@ -6883,15 +6877,15 @@
       <c r="C40" s="81">
         <v>0</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="97"/>
@@ -6899,15 +6893,15 @@
       <c r="C41" s="81">
         <v>0</v>
       </c>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="97"/>
@@ -6915,15 +6909,15 @@
       <c r="C42" s="81">
         <v>0</v>
       </c>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
     </row>
     <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="95">
@@ -6936,36 +6930,42 @@
         <f>SUM(C40:C42)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A6:L8"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D15:L15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
-    <mergeCell ref="A6:L8"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D33:L33"/>
     <mergeCell ref="D43:L43"/>
     <mergeCell ref="D16:L16"/>
     <mergeCell ref="D17:L17"/>
     <mergeCell ref="D18:L18"/>
     <mergeCell ref="D22:L22"/>
     <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D15:L15"/>
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="D27:L27"/>
     <mergeCell ref="D24:L24"/>
@@ -6973,17 +6973,11 @@
     <mergeCell ref="D42:L42"/>
     <mergeCell ref="D40:L40"/>
     <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D33:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C© www.banana.ch/it/it</oddFooter>
+    <oddFooter>&amp;C© www.banana.ch</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/noprofit/en/11255/inpag-template.xlsx
+++ b/noprofit/en/11255/inpag-template.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\noprofit\en\11255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC963B-0A3F-41F2-B0C0-4E6B10D440E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AA23B2-D226-46C1-97C1-0C1CEF0A1F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="7" r:id="rId1"/>
-    <sheet name="Statement of financial position" sheetId="1" r:id="rId2"/>
-    <sheet name="Income statement" sheetId="3" r:id="rId3"/>
-    <sheet name="Statement of changes in equity" sheetId="6" r:id="rId4"/>
-    <sheet name="Cash flow statement - indirect" sheetId="5" r:id="rId5"/>
-    <sheet name="Notes of financial statement" sheetId="4" r:id="rId6"/>
-    <sheet name="Notes of income statement" sheetId="10" r:id="rId7"/>
-    <sheet name="Notes of cash flow statement" sheetId="9" r:id="rId8"/>
+    <sheet name="Statement of Financial Position" sheetId="1" r:id="rId2"/>
+    <sheet name="Statement of Income &amp; Expenses" sheetId="3" r:id="rId3"/>
+    <sheet name="Statement of Changes NetAssets" sheetId="6" r:id="rId4"/>
+    <sheet name="Cash Flows Statement - indirect" sheetId="5" r:id="rId5"/>
+    <sheet name="Notes of Financial Statement" sheetId="4" r:id="rId6"/>
+    <sheet name="Notes of Income Statement" sheetId="10" r:id="rId7"/>
+    <sheet name="Notes of Cash flows statement" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Cash flow statement - indirect'!$A$1:$E$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Cash Flows Statement - indirect'!$A$1:$E$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'General information'!$A$1:$G$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Notes of cash flow statement'!$A$1:$L$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Notes of financial statement'!$A$1:$D$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Notes of income statement'!$A$1:$D$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Statement of changes in equity'!$A$1:$E$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Statement of financial position'!$A$1:$E$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Notes of Cash flows statement'!$A$1:$L$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Notes of Financial Statement'!$A$1:$D$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Notes of Income Statement'!$A$1:$D$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Statement of Changes NetAssets'!$A$1:$E$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Statement of Financial Position'!$A$1:$E$50</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -99,9 +99,6 @@
     <t>Description of nature of entity's operations and principal activities</t>
   </si>
   <si>
-    <t>Description of nature of entit's operation and activities (Activity A, B, C, D)</t>
-  </si>
-  <si>
     <t>During the financial year the principal continuing activities of the company</t>
   </si>
   <si>
@@ -126,27 +123,9 @@
     <t>Contents</t>
   </si>
   <si>
-    <t>Statement of financial position</t>
-  </si>
-  <si>
-    <t>Income statement</t>
-  </si>
-  <si>
-    <t>Statement of changes in equity</t>
-  </si>
-  <si>
-    <t>Cash flow statement - indirect</t>
-  </si>
-  <si>
     <t>Notes of Financial Statement</t>
   </si>
   <si>
-    <t>Notes of Income Statement</t>
-  </si>
-  <si>
-    <t>Notes of Cash Flow Statement</t>
-  </si>
-  <si>
     <t>Identifying information of no-profit</t>
   </si>
   <si>
@@ -393,9 +372,6 @@
     <t>EQB</t>
   </si>
   <si>
-    <t>Equity at beginning of period</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -414,18 +390,9 @@
     <t>Total comprehensive income</t>
   </si>
   <si>
-    <t>Increase (decrease) in equity</t>
-  </si>
-  <si>
-    <t>Total increase (decrease) in equity</t>
-  </si>
-  <si>
     <t>EQE</t>
   </si>
   <si>
-    <t>Equity at end of period</t>
-  </si>
-  <si>
     <t>PLC</t>
   </si>
   <si>
@@ -582,12 +549,6 @@
     <t>Total Description of acquisition of assets by assuming directly related liabilities or means of finance lease</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Description of acquisition of entity by means of equity issue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Description of conversion of debt to equity </t>
-  </si>
-  <si>
     <t>Total Commentary by management on significant cash and cash equivalent balances held by entity that are not available for use by group</t>
   </si>
   <si>
@@ -636,21 +597,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>Notes to the Cash flow Statement</t>
-  </si>
-  <si>
-    <t>Statement of Cash Flow, indirect method</t>
-  </si>
-  <si>
-    <t>Statement of Changes in Equity</t>
-  </si>
-  <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
-    <t>Statement of Financial position, current/non-current</t>
-  </si>
-  <si>
     <t>General Information</t>
   </si>
   <si>
@@ -874,6 +820,60 @@
   </si>
   <si>
     <t>[-] Disposals</t>
+  </si>
+  <si>
+    <t>Statement of Changes in Net Assets</t>
+  </si>
+  <si>
+    <t>Net Assets at beginning of period</t>
+  </si>
+  <si>
+    <t>Increase (decrease) in Net Assets</t>
+  </si>
+  <si>
+    <t>Total increase (decrease) in Net Assets</t>
+  </si>
+  <si>
+    <t>Net Assets at end of period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of acquisition of entity by means of net assets issue </t>
+  </si>
+  <si>
+    <t>Description of conversion of debt to net assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Description of acquisition of entity by means of net assets issue </t>
+  </si>
+  <si>
+    <t>Total Description of conversion of debt to net assets</t>
+  </si>
+  <si>
+    <t>Notes to the Statement of Cash Flows</t>
+  </si>
+  <si>
+    <t>Notes of Statement of Income and Expenses</t>
+  </si>
+  <si>
+    <t>Statement of Cash Flows, indirect method</t>
+  </si>
+  <si>
+    <t>Statement of Income and Expenses</t>
+  </si>
+  <si>
+    <t>Statement of Financial Position</t>
+  </si>
+  <si>
+    <t>Statement of Cash Flows - indirect</t>
+  </si>
+  <si>
+    <t>Notes of Statement of Financial Position</t>
+  </si>
+  <si>
+    <t>Notes of Statement of Cash Flows</t>
+  </si>
+  <si>
+    <t>Description of nature of entity's operation and activities (Activity A, B, C, D)</t>
   </si>
 </sst>
 </file>
@@ -1360,6 +1360,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1369,18 +1381,6 @@
     <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1405,47 +1405,47 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1842,7 +1842,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -1960,7 +1960,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="101" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="101" t="s">
-        <v>17</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="101"/>
@@ -2038,7 +2038,7 @@
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="101"/>
       <c r="D18" s="101"/>
@@ -2049,7 +2049,7 @@
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="101"/>
       <c r="D19" s="101"/>
@@ -2060,7 +2060,7 @@
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="96"/>
       <c r="B20" s="101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="101"/>
       <c r="D20" s="101"/>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="101" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" s="101" t="s">
-        <v>22</v>
       </c>
       <c r="C21" s="101"/>
       <c r="D21" s="101"/>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="101" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="C22" s="101"/>
       <c r="D22" s="101"/>
@@ -2097,7 +2097,7 @@
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="96"/>
       <c r="B23" s="101" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="C23" s="101"/>
       <c r="D23" s="101"/>
@@ -2108,7 +2108,7 @@
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="96"/>
       <c r="B24" s="101" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="101"/>
@@ -2119,7 +2119,7 @@
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="96"/>
       <c r="B25" s="101" t="s">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
@@ -2130,7 +2130,7 @@
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="96"/>
       <c r="B26" s="101" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
@@ -2141,7 +2141,7 @@
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="96"/>
       <c r="B27" s="101" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="C27" s="101"/>
       <c r="D27" s="101"/>
@@ -2152,7 +2152,7 @@
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="96"/>
       <c r="B28" s="101" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="C28" s="101"/>
       <c r="D28" s="101"/>
@@ -2162,12 +2162,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:G16"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
@@ -2184,6 +2178,12 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G16"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -2217,94 +2217,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="A6" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="74">
         <f>$B$4</f>
@@ -2317,19 +2317,19 @@
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
+      <c r="B10" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" s="90">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="12" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" s="90">
         <v>2</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="13" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C13" s="90">
         <v>3</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="14" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" s="90">
         <v>4</v>
@@ -2395,7 +2395,7 @@
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="54" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="62">
@@ -2416,19 +2416,19 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
+      <c r="B17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C18" s="90">
         <v>5</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="19" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C19" s="90">
         <v>6</v>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="20" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20" s="90">
         <v>7</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="21" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="90">
         <v>8</v>
@@ -2494,7 +2494,7 @@
     <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="54" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="63">
@@ -2509,7 +2509,7 @@
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="54" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="63">
@@ -2530,13 +2530,13 @@
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D25" s="74">
         <f>$B$4</f>
@@ -2549,19 +2549,19 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
-      <c r="B26" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
+      <c r="B26" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
     </row>
     <row r="27" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C27" s="90">
         <v>9</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="28" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C28" s="90">
         <v>10</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="29" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C29" s="90">
         <v>11</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="30" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C30" s="90">
         <v>12</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="31" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C31" s="90">
         <v>13</v>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="32" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="90">
         <v>14</v>
@@ -2661,7 +2661,7 @@
     <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
       <c r="B33" s="54" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="62">
@@ -2682,19 +2682,19 @@
     </row>
     <row r="35" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
+      <c r="B35" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
     </row>
     <row r="36" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C36" s="90">
         <v>15</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C37" s="90">
         <v>16</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C38" s="90">
         <v>17</v>
@@ -2743,7 +2743,7 @@
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="54" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="62">
@@ -2764,19 +2764,19 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
-      <c r="B41" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
+      <c r="B41" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
     </row>
     <row r="42" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C42" s="90">
         <v>18</v>
@@ -2790,10 +2790,10 @@
     </row>
     <row r="43" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C43" s="90">
         <v>19</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C44" s="90">
         <v>20</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="45" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C45" s="90">
         <v>21</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="46" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C46" s="90">
         <v>22</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="47" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C47" s="90">
         <v>23</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="48" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C48" s="90">
         <v>24</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
-      <c r="B49" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="110"/>
+      <c r="B49" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="107"/>
       <c r="D49" s="62">
         <f>SUM(D42:D48)</f>
         <v>0</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
-      <c r="B50" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="110"/>
+      <c r="B50" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="107"/>
       <c r="D50" s="62">
         <f>SUM(D33,D39,D49)</f>
         <v>0</v>
@@ -2936,13 +2936,13 @@
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="109" t="str">
+        <v>75</v>
+      </c>
+      <c r="B53" s="106" t="str">
         <f>IF((D15+D23+D33=D39+D49),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C53" s="109"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="53">
         <f>D50-D23</f>
         <v>0</v>
@@ -2950,14 +2950,14 @@
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="108" t="str">
+        <v>75</v>
+      </c>
+      <c r="B54" s="105" t="str">
         <f>IF((E15+E23+E33=E39+E49),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
       <c r="E54" s="53">
         <f>E50-E23</f>
         <v>0</v>
@@ -2971,6 +2971,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B53:C53"/>
@@ -2981,11 +2986,6 @@
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B53">
@@ -3045,7 +3045,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="111" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -3103,37 +3103,37 @@
       <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="A6" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="84">
         <f>$B$4</f>
@@ -3146,10 +3146,10 @@
     </row>
     <row r="10" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C10" s="91">
         <v>25</v>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="11" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C11" s="91">
         <v>26</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="12" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C12" s="91">
         <v>27</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="13" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C13" s="91">
         <v>28</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="14" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C14" s="91">
         <v>29</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="15" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C15" s="91">
         <v>30</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C16" s="91">
         <v>31</v>
@@ -3265,10 +3265,10 @@
     </row>
     <row r="17" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C17" s="91">
         <v>32</v>
@@ -3282,10 +3282,10 @@
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C18" s="91">
         <v>33</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="19" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C19" s="91">
         <v>34</v>
@@ -3317,7 +3317,7 @@
     <row r="20" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="64" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="65">
@@ -3338,13 +3338,13 @@
     </row>
     <row r="22" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D22" s="84">
         <f>$B$4</f>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="23" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C23" s="91">
         <v>35</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="24" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C24" s="91">
         <v>36</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="25" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C25" s="91">
         <v>37</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="26" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C26" s="91">
         <v>38</v>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C27" s="91">
         <v>39</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="28" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C28" s="91">
         <v>40</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="29" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C29" s="91">
         <v>41</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C30" s="91">
         <v>42</v>
@@ -3494,7 +3494,7 @@
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
       <c r="B31" s="64" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="65">
@@ -3515,13 +3515,13 @@
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D33" s="84">
         <f>$B$4</f>
@@ -3534,10 +3534,10 @@
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C34" s="91">
         <v>43</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C35" s="91">
         <v>44</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C36" s="91">
         <v>45</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C37" s="91">
         <v>46</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C38" s="91">
         <v>47</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C39" s="91">
         <v>48</v>
@@ -3637,7 +3637,7 @@
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
       <c r="B40" s="86" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C40" s="86"/>
       <c r="D40" s="87">
@@ -3652,7 +3652,7 @@
     <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="64" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C41" s="64"/>
       <c r="D41" s="66">
@@ -3708,13 +3708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3723,79 +3723,79 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="A6" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="74">
@@ -3809,10 +3809,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="14">
@@ -3829,10 +3829,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="74">
@@ -3846,10 +3846,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
@@ -3859,10 +3859,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B14" s="116" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C14" s="116"/>
       <c r="D14" s="116"/>
@@ -3873,7 +3873,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="115" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
@@ -3891,10 +3891,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="76">
@@ -3908,10 +3908,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="117" t="s">
         <v>236</v>
-      </c>
-      <c r="B18" s="117" t="s">
-        <v>254</v>
       </c>
       <c r="C18" s="117"/>
       <c r="D18" s="117"/>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="117" t="s">
         <v>237</v>
-      </c>
-      <c r="B19" s="117" t="s">
-        <v>255</v>
       </c>
       <c r="C19" s="117"/>
       <c r="D19" s="117"/>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="117" t="s">
         <v>238</v>
-      </c>
-      <c r="B20" s="117" t="s">
-        <v>256</v>
       </c>
       <c r="C20" s="117"/>
       <c r="D20" s="117"/>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C21" s="117"/>
       <c r="D21" s="117"/>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C22" s="116"/>
       <c r="D22" s="116"/>
@@ -3974,7 +3974,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="115" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="C23" s="115"/>
       <c r="D23" s="115"/>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="C25" s="115"/>
       <c r="D25" s="115"/>
@@ -4007,6 +4007,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B25:D25"/>
@@ -4019,11 +4024,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -4055,96 +4055,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="A6" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="119" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="119"/>
+        <v>106</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="120"/>
       <c r="D9" s="74" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E9" s="74">
         <f>$B$5</f>
@@ -4153,13 +4153,13 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
+        <v>113</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="22">
         <v>0</v>
       </c>
@@ -4173,14 +4173,14 @@
     </row>
     <row r="12" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="74" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E12" s="74">
         <f>$B$5</f>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="13" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C13" s="117"/>
       <c r="D13" s="90"/>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="14" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C14" s="117"/>
       <c r="D14" s="90"/>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="15" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C15" s="117"/>
       <c r="D15" s="90"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="16" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B16" s="117" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C16" s="117"/>
       <c r="D16" s="90"/>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="17" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C17" s="117"/>
       <c r="D17" s="90"/>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="18" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C18" s="117"/>
       <c r="D18" s="90"/>
@@ -4270,10 +4270,10 @@
     </row>
     <row r="19" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C19" s="117"/>
       <c r="D19" s="90"/>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="20" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C20" s="117"/>
       <c r="D20" s="90"/>
@@ -4298,12 +4298,12 @@
     </row>
     <row r="21" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="120"/>
+        <v>186</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="119"/>
       <c r="D21" s="90"/>
       <c r="E21" s="22">
         <v>0</v>
@@ -4312,12 +4312,12 @@
     </row>
     <row r="22" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="120"/>
+        <v>187</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="119"/>
       <c r="D22" s="90"/>
       <c r="E22" s="22">
         <v>0</v>
@@ -4326,12 +4326,12 @@
     </row>
     <row r="23" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="120" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="120"/>
+        <v>188</v>
+      </c>
+      <c r="B23" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="119"/>
       <c r="D23" s="90"/>
       <c r="E23" s="22">
         <v>0</v>
@@ -4340,12 +4340,12 @@
     </row>
     <row r="24" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="C24" s="120"/>
+        <v>189</v>
+      </c>
+      <c r="B24" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="119"/>
       <c r="D24" s="90"/>
       <c r="E24" s="22">
         <v>0</v>
@@ -4354,11 +4354,11 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
+      <c r="B25" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="62">
         <f>E10+SUM(E13:E24)</f>
         <v>0</v>
@@ -4373,14 +4373,14 @@
     </row>
     <row r="27" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="119" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="119"/>
+        <v>106</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="120"/>
       <c r="D27" s="74" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E27" s="74">
         <f>$B$5</f>
@@ -4389,12 +4389,12 @@
     </row>
     <row r="28" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="120" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28" s="120"/>
+        <v>190</v>
+      </c>
+      <c r="B28" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="119"/>
       <c r="D28" s="90"/>
       <c r="E28" s="22">
         <v>0</v>
@@ -4402,12 +4402,12 @@
     </row>
     <row r="29" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="120" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="120"/>
+        <v>191</v>
+      </c>
+      <c r="B29" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="119"/>
       <c r="D29" s="90"/>
       <c r="E29" s="22">
         <v>0</v>
@@ -4415,12 +4415,12 @@
     </row>
     <row r="30" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="120"/>
+        <v>192</v>
+      </c>
+      <c r="B30" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="119"/>
       <c r="D30" s="90"/>
       <c r="E30" s="22">
         <v>0</v>
@@ -4428,12 +4428,12 @@
     </row>
     <row r="31" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="120" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="120"/>
+        <v>193</v>
+      </c>
+      <c r="B31" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="119"/>
       <c r="D31" s="90"/>
       <c r="E31" s="22">
         <v>0</v>
@@ -4441,11 +4441,11 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
-      <c r="B32" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
+      <c r="B32" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
       <c r="E32" s="62">
         <f>E10+E25+SUM(E28:E31)</f>
         <v>0</v>
@@ -4460,14 +4460,14 @@
     </row>
     <row r="34" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="119"/>
+        <v>106</v>
+      </c>
+      <c r="B34" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="120"/>
       <c r="D34" s="74" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E34" s="74">
         <f>$B$5</f>
@@ -4477,12 +4477,12 @@
     </row>
     <row r="35" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="120"/>
+        <v>194</v>
+      </c>
+      <c r="B35" s="119" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="119"/>
       <c r="D35" s="90"/>
       <c r="E35" s="22">
         <v>0</v>
@@ -4490,12 +4490,12 @@
     </row>
     <row r="36" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="120"/>
+        <v>195</v>
+      </c>
+      <c r="B36" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="119"/>
       <c r="D36" s="90"/>
       <c r="E36" s="22">
         <v>0</v>
@@ -4503,12 +4503,12 @@
     </row>
     <row r="37" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="120" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="120"/>
+        <v>196</v>
+      </c>
+      <c r="B37" s="119" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="119"/>
       <c r="D37" s="90"/>
       <c r="E37" s="22">
         <v>0</v>
@@ -4516,11 +4516,11 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
-      <c r="B38" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
+      <c r="B38" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
       <c r="E38" s="62">
         <f>E10+E25+E32+SUM(E35:E37)</f>
         <v>0</v>
@@ -4535,11 +4535,11 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
+      <c r="B40" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
       <c r="E40" s="62">
         <f>SUM(E25,E32,E38)</f>
         <v>0</v>
@@ -4554,10 +4554,10 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C42" s="118"/>
       <c r="D42" s="26"/>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C43" s="118"/>
       <c r="D43" s="26"/>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B44" s="118" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C44" s="118"/>
       <c r="D44" s="26"/>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
-      <c r="B45" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="110"/>
+      <c r="B45" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="107"/>
       <c r="D45" s="93">
         <v>49</v>
       </c>
@@ -4607,35 +4607,35 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
+      <c r="B46" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
       <c r="E46" s="69">
-        <f>'Statement of financial position'!D22</f>
+        <f>'Statement of Financial Position'!D22</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
+      <c r="B47" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
       <c r="E47" s="69">
-        <f>'Statement of financial position'!E22</f>
+        <f>'Statement of Financial Position'!E22</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
-      <c r="B48" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
+      <c r="B48" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
       <c r="E48" s="69">
         <f>E47-E46</f>
         <v>0</v>
@@ -4658,7 +4658,7 @@
     <row r="51" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="57" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
@@ -4667,7 +4667,7 @@
     <row r="52" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="118" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C52" s="118"/>
       <c r="D52" s="90">
@@ -4678,7 +4678,7 @@
     <row r="53" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="118" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C53" s="118"/>
       <c r="D53" s="90">
@@ -4689,7 +4689,7 @@
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="118" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="C54" s="118"/>
       <c r="D54" s="90">
@@ -4700,7 +4700,7 @@
     <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="118" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="C55" s="118"/>
       <c r="D55" s="90">
@@ -4711,7 +4711,7 @@
     <row r="56" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="118" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C56" s="118"/>
       <c r="D56" s="90">
@@ -4735,18 +4735,25 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B32:D32"/>
@@ -4763,25 +4770,18 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -4812,85 +4812,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="A1" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
+      <c r="A6" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
+      <c r="A9" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="122"/>
@@ -4911,34 +4911,34 @@
       <c r="D12" s="122"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="124"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="124"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
@@ -5007,23 +5007,23 @@
       <c r="D28" s="122"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="125"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C31" s="22">
         <v>0</v>
@@ -5043,17 +5043,17 @@
         <v>2</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C32" s="70"/>
       <c r="D32" s="89"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C33" s="22">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C34" s="22">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C35" s="23">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>2.4</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C36" s="22">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>2.5</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C37" s="22">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>2.6</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C38" s="22">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>2.7</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C39" s="22">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>2.8</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C40" s="22">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>2.9</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C41" s="22">
         <v>0</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C42" s="22">
         <v>0</v>
@@ -5170,10 +5170,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C43" s="22">
         <v>0</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C44" s="22">
         <v>0</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C45" s="22">
         <v>0</v>
@@ -5206,10 +5206,10 @@
     </row>
     <row r="46" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C46" s="22">
         <v>0</v>
@@ -5218,10 +5218,10 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C47" s="22">
         <v>0</v>
@@ -5231,7 +5231,7 @@
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="45" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C48" s="62">
         <f>SUM(C33:C47)</f>
@@ -5244,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C49" s="23">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C50" s="23">
         <v>0</v>
@@ -5266,7 +5266,7 @@
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94"/>
       <c r="B51" s="45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C51" s="62">
         <f>SUM($C31+$C48+$C49+$C50)</f>
@@ -5282,16 +5282,16 @@
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5299,7 +5299,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C54" s="23">
         <v>0</v>
@@ -5308,10 +5308,10 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C55" s="23">
         <v>0</v>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C56" s="23">
         <v>0</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C57" s="23">
         <v>0</v>
@@ -5345,7 +5345,7 @@
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C58" s="62">
         <f>SUM(C54:C57)</f>
@@ -5361,24 +5361,24 @@
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="74" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C61" s="23">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C62" s="23">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>11</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C63" s="23">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C64" s="23">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C65" s="23">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>14</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C66" s="23">
         <v>0</v>
@@ -5448,7 +5448,7 @@
     <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="54" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C67" s="71">
         <f>SUM(C61:C66)</f>
@@ -5464,16 +5464,16 @@
     </row>
     <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="74" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -5481,7 +5481,7 @@
         <v>15</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C70" s="88">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>16</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C71" s="88">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C72" s="14">
         <v>0</v>
@@ -5515,7 +5515,7 @@
     <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="54" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C73" s="63">
         <f>SUM($C70:$C72)</f>
@@ -5531,16 +5531,16 @@
     </row>
     <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="74" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C76" s="14">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C77" s="14">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C78" s="14">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C79" s="14">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C80" s="14">
         <v>0</v>
@@ -5608,7 +5608,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C81" s="14">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C82" s="14">
         <v>0</v>
@@ -5630,7 +5630,7 @@
     <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="45" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C83" s="63">
         <f>SUM($C76:$C82)</f>
@@ -5640,18 +5640,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
@@ -5667,6 +5655,18 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5702,7 +5702,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="126" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -5713,78 +5713,78 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="str">
+      <c r="B2" s="108" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="str">
+      <c r="B3" s="108" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="110">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="110">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
+      <c r="A6" s="104" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5792,7 +5792,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C11" s="23">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C13" s="23">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C14" s="23">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C16" s="23">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C18" s="23">
         <v>0</v>
@@ -5900,7 +5900,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C19" s="23">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="54" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C20" s="62">
         <f>SUM(C10:C19)</f>
@@ -5926,16 +5926,16 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5943,7 +5943,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C23" s="23">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C24" s="23">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C25" s="23">
         <v>0</v>
@@ -5979,7 +5979,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C26" s="23">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C27" s="23">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C28" s="23">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C29" s="23">
         <v>0</v>
@@ -6027,7 +6027,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C30" s="23">
         <v>0</v>
@@ -6037,7 +6037,7 @@
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="72" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C31" s="73">
         <f>SUM(C11:C28)</f>
@@ -6053,16 +6053,16 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C33" s="99" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,7 +6070,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C34" s="23">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C35" s="23">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C36" s="23">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C37" s="23">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C38" s="23">
         <v>0</v>
@@ -6130,7 +6130,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C39" s="23">
         <v>0</v>
@@ -6140,7 +6140,7 @@
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="35" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C40" s="63">
         <f>SUM(C34:C39)</f>
@@ -6190,7 +6190,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="126" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -6281,70 +6281,70 @@
       <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
+      <c r="A6" s="127" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
+        <v>133</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="97"/>
@@ -6352,15 +6352,15 @@
       <c r="C10" s="81">
         <v>0</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="97"/>
@@ -6368,15 +6368,15 @@
       <c r="C11" s="81">
         <v>0</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="97"/>
@@ -6384,22 +6384,22 @@
       <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="77">
         <v>49</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C13" s="63">
         <f>SUM(C10:C12)</f>
@@ -6431,25 +6431,25 @@
     </row>
     <row r="15" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
+        <v>133</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="97"/>
@@ -6457,15 +6457,15 @@
       <c r="C16" s="81">
         <v>0</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="97"/>
@@ -6473,15 +6473,15 @@
       <c r="C17" s="81">
         <v>0</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="97"/>
@@ -6489,22 +6489,22 @@
       <c r="C18" s="81">
         <v>0</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="77">
         <v>50</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C19" s="82">
         <f>SUM(C16:C18)</f>
@@ -6536,25 +6536,25 @@
     </row>
     <row r="21" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
+        <v>133</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="97"/>
@@ -6562,15 +6562,15 @@
       <c r="C22" s="81">
         <v>0</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="97"/>
@@ -6578,15 +6578,15 @@
       <c r="C23" s="81">
         <v>0</v>
       </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="97"/>
@@ -6594,22 +6594,22 @@
       <c r="C24" s="81">
         <v>0</v>
       </c>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="77">
         <v>51</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C25" s="82">
         <f>SUM(C22:C24)</f>
@@ -6641,25 +6641,25 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
+        <v>133</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="97"/>
@@ -6667,15 +6667,15 @@
       <c r="C28" s="81">
         <v>0</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="97"/>
@@ -6683,15 +6683,15 @@
       <c r="C29" s="81">
         <v>0</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="97"/>
@@ -6699,22 +6699,22 @@
       <c r="C30" s="81">
         <v>0</v>
       </c>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="77">
         <v>52</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="C31" s="82">
         <f>SUM(C28:C30)</f>
@@ -6746,25 +6746,25 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="78" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
+        <v>133</v>
+      </c>
+      <c r="D33" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="97"/>
@@ -6772,15 +6772,15 @@
       <c r="C34" s="81">
         <v>0</v>
       </c>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="127"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="97"/>
@@ -6788,15 +6788,15 @@
       <c r="C35" s="81">
         <v>0</v>
       </c>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="97"/>
@@ -6804,22 +6804,22 @@
       <c r="C36" s="81">
         <v>0</v>
       </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="77">
         <v>53</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="C37" s="82">
         <f>SUM(C34:C36)</f>
@@ -6851,25 +6851,25 @@
     </row>
     <row r="39" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
+        <v>133</v>
+      </c>
+      <c r="D39" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="97"/>
@@ -6877,15 +6877,15 @@
       <c r="C40" s="81">
         <v>0</v>
       </c>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="97"/>
@@ -6893,15 +6893,15 @@
       <c r="C41" s="81">
         <v>0</v>
       </c>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="97"/>
@@ -6909,54 +6909,39 @@
       <c r="C42" s="81">
         <v>0</v>
       </c>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="127"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
     </row>
     <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="95">
         <v>54</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C43" s="82">
         <f>SUM(C40:C42)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A6:L8"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="D9:L9"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="D33:L33"/>
@@ -6973,6 +6958,21 @@
     <mergeCell ref="D42:L42"/>
     <mergeCell ref="D40:L40"/>
     <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="A6:L8"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>

--- a/noprofit/en/11255/inpag-template.xlsx
+++ b/noprofit/en/11255/inpag-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.pasquillo\Documents\GitHub\Universal\noprofit\en\11255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AA23B2-D226-46C1-97C1-0C1CEF0A1F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA20E27-1C79-401B-9F4F-65F1E594FB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{8907ADCE-C3F1-4516-963F-08DDED88069F}"/>
   </bookViews>
@@ -1360,6 +1360,15 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1372,15 +1381,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1405,47 +1405,47 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2162,6 +2162,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B10:G16"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
@@ -2178,12 +2184,6 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B10:G16"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -2200,8 +2200,8 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2217,84 +2217,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
@@ -2317,12 +2317,12 @@
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
@@ -2416,12 +2416,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
     </row>
     <row r="18" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
@@ -2549,12 +2549,12 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
     </row>
     <row r="27" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
@@ -2682,12 +2682,12 @@
     </row>
     <row r="35" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
     </row>
     <row r="36" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
@@ -2764,12 +2764,12 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
-      <c r="B41" s="107" t="s">
+      <c r="B41" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
     </row>
     <row r="42" spans="1:5" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
@@ -2892,10 +2892,10 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="107"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="62">
         <f>SUM(D42:D48)</f>
         <v>0</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="107"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="62">
         <f>SUM(D33,D39,D49)</f>
         <v>0</v>
@@ -2938,11 +2938,11 @@
       <c r="A53" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="106" t="str">
+      <c r="B53" s="109" t="str">
         <f>IF((D15+D23+D33=D39+D49),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C53" s="106"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="53">
         <f>D50-D23</f>
         <v>0</v>
@@ -2952,12 +2952,12 @@
       <c r="A54" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="105" t="str">
+      <c r="B54" s="108" t="str">
         <f>IF((E15+E23+E33=E39+E49),"Ok","Attention! The total liabilities do not match the total assets!")</f>
         <v>Ok</v>
       </c>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
       <c r="E54" s="53">
         <f>E50-E23</f>
         <v>0</v>
@@ -2971,11 +2971,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B53:C53"/>
@@ -2986,6 +2981,11 @@
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B53">
@@ -3026,8 +3026,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3103,27 +3103,27 @@
       <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
@@ -3708,13 +3708,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3723,72 +3723,72 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
@@ -4007,11 +4007,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A6:E8"/>
     <mergeCell ref="B25:D25"/>
@@ -4024,6 +4019,11 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -4055,94 +4055,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="120"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="74" t="s">
         <v>27</v>
       </c>
@@ -4155,11 +4155,11 @@
       <c r="A10" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="22">
         <v>0</v>
       </c>
@@ -4175,10 +4175,10 @@
       <c r="A12" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="120"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="74" t="s">
         <v>27</v>
       </c>
@@ -4300,10 +4300,10 @@
       <c r="A21" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="119"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="90"/>
       <c r="E21" s="22">
         <v>0</v>
@@ -4314,10 +4314,10 @@
       <c r="A22" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="90"/>
       <c r="E22" s="22">
         <v>0</v>
@@ -4328,10 +4328,10 @@
       <c r="A23" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="120" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="119"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="90"/>
       <c r="E23" s="22">
         <v>0</v>
@@ -4342,10 +4342,10 @@
       <c r="A24" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="120" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="119"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="90"/>
       <c r="E24" s="22">
         <v>0</v>
@@ -4354,11 +4354,11 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="62">
         <f>E10+SUM(E13:E24)</f>
         <v>0</v>
@@ -4375,10 +4375,10 @@
       <c r="A27" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="120"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="74" t="s">
         <v>27</v>
       </c>
@@ -4391,10 +4391,10 @@
       <c r="A28" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="119"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="90"/>
       <c r="E28" s="22">
         <v>0</v>
@@ -4404,10 +4404,10 @@
       <c r="A29" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="C29" s="119"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="90"/>
       <c r="E29" s="22">
         <v>0</v>
@@ -4417,10 +4417,10 @@
       <c r="A30" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="120" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="119"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="90"/>
       <c r="E30" s="22">
         <v>0</v>
@@ -4430,10 +4430,10 @@
       <c r="A31" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="119"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="90"/>
       <c r="E31" s="22">
         <v>0</v>
@@ -4441,11 +4441,11 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="62">
         <f>E10+E25+SUM(E28:E31)</f>
         <v>0</v>
@@ -4462,10 +4462,10 @@
       <c r="A34" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="120"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="74" t="s">
         <v>27</v>
       </c>
@@ -4479,10 +4479,10 @@
       <c r="A35" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="120" t="s">
         <v>249</v>
       </c>
-      <c r="C35" s="119"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="90"/>
       <c r="E35" s="22">
         <v>0</v>
@@ -4492,10 +4492,10 @@
       <c r="A36" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="119"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="90"/>
       <c r="E36" s="22">
         <v>0</v>
@@ -4505,10 +4505,10 @@
       <c r="A37" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="119" t="s">
+      <c r="B37" s="120" t="s">
         <v>251</v>
       </c>
-      <c r="C37" s="119"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="90"/>
       <c r="E37" s="22">
         <v>0</v>
@@ -4516,11 +4516,11 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="62">
         <f>E10+E25+E32+SUM(E35:E37)</f>
         <v>0</v>
@@ -4535,11 +4535,11 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="62">
         <f>SUM(E25,E32,E38)</f>
         <v>0</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="107"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="93">
         <v>49</v>
       </c>
@@ -4607,11 +4607,11 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
       <c r="E46" s="69">
         <f>'Statement of Financial Position'!D22</f>
         <v>0</v>
@@ -4619,11 +4619,11 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
       <c r="E47" s="69">
         <f>'Statement of Financial Position'!E22</f>
         <v>0</v>
@@ -4631,11 +4631,11 @@
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
       <c r="E48" s="69">
         <f>E47-E46</f>
         <v>0</v>
@@ -4735,25 +4735,18 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B32:D32"/>
@@ -4770,18 +4763,25 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
@@ -4812,85 +4812,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="122"/>
@@ -4911,34 +4911,34 @@
       <c r="D12" s="122"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="123"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
@@ -5007,10 +5007,10 @@
       <c r="D28" s="122"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
@@ -5640,6 +5640,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
@@ -5655,18 +5667,6 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5713,65 +5713,65 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="104" t="str">
         <f>'General information'!B2</f>
         <v>No-ProfitName LegalForm</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="104" t="str">
         <f>'General information'!B3</f>
         <v>Address 1234, Country</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="106">
         <f>'General information'!B8</f>
         <v>45292</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="106">
         <f>'General information'!B9</f>
         <v>45657</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -6281,48 +6281,48 @@
       <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
@@ -6334,17 +6334,17 @@
       <c r="C9" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="97"/>
@@ -6352,15 +6352,15 @@
       <c r="C10" s="81">
         <v>0</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="97"/>
@@ -6368,15 +6368,15 @@
       <c r="C11" s="81">
         <v>0</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="97"/>
@@ -6384,15 +6384,15 @@
       <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="77">
@@ -6439,17 +6439,17 @@
       <c r="C15" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="97"/>
@@ -6457,15 +6457,15 @@
       <c r="C16" s="81">
         <v>0</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="97"/>
@@ -6473,15 +6473,15 @@
       <c r="C17" s="81">
         <v>0</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="97"/>
@@ -6489,15 +6489,15 @@
       <c r="C18" s="81">
         <v>0</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="77">
@@ -6544,17 +6544,17 @@
       <c r="C21" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="97"/>
@@ -6562,15 +6562,15 @@
       <c r="C22" s="81">
         <v>0</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="97"/>
@@ -6578,15 +6578,15 @@
       <c r="C23" s="81">
         <v>0</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="97"/>
@@ -6594,15 +6594,15 @@
       <c r="C24" s="81">
         <v>0</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="77">
@@ -6649,17 +6649,17 @@
       <c r="C27" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="97"/>
@@ -6667,15 +6667,15 @@
       <c r="C28" s="81">
         <v>0</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="97"/>
@@ -6683,15 +6683,15 @@
       <c r="C29" s="81">
         <v>0</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="97"/>
@@ -6699,15 +6699,15 @@
       <c r="C30" s="81">
         <v>0</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="77">
@@ -6754,17 +6754,17 @@
       <c r="C33" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="129" t="s">
+      <c r="D33" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="97"/>
@@ -6772,15 +6772,15 @@
       <c r="C34" s="81">
         <v>0</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="97"/>
@@ -6788,15 +6788,15 @@
       <c r="C35" s="81">
         <v>0</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="97"/>
@@ -6804,15 +6804,15 @@
       <c r="C36" s="81">
         <v>0</v>
       </c>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="77">
@@ -6859,17 +6859,17 @@
       <c r="C39" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="129" t="s">
+      <c r="D39" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="97"/>
@@ -6877,15 +6877,15 @@
       <c r="C40" s="81">
         <v>0</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="97"/>
@@ -6893,15 +6893,15 @@
       <c r="C41" s="81">
         <v>0</v>
       </c>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="97"/>
@@ -6909,15 +6909,15 @@
       <c r="C42" s="81">
         <v>0</v>
       </c>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
     </row>
     <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="95">
@@ -6930,18 +6930,33 @@
         <f>SUM(C40:C42)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A6:L8"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="D36:L36"/>
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="D33:L33"/>
@@ -6958,21 +6973,6 @@
     <mergeCell ref="D42:L42"/>
     <mergeCell ref="D40:L40"/>
     <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="A6:L8"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
